--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F105A2-F7B6-4EB2-B449-98996656CDCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43589D57-DB2B-4B6E-9C42-C98F94394749}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
+    <workbookView xWindow="3765" yWindow="975" windowWidth="21600" windowHeight="11385" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="333">
   <si>
     <t>course_code</t>
   </si>
@@ -767,6 +767,270 @@
   </si>
   <si>
     <t>Biological Physics</t>
+  </si>
+  <si>
+    <t>CSCI 0020</t>
+  </si>
+  <si>
+    <t>CSCI 0030</t>
+  </si>
+  <si>
+    <t>CSCI 0040</t>
+  </si>
+  <si>
+    <t>CSCI 0100</t>
+  </si>
+  <si>
+    <t>CSCI 0111</t>
+  </si>
+  <si>
+    <t>CSCI 0130</t>
+  </si>
+  <si>
+    <t>CSCI 0150</t>
+  </si>
+  <si>
+    <t>CSCI 0160</t>
+  </si>
+  <si>
+    <t>CSCI 0170</t>
+  </si>
+  <si>
+    <t>CSCI 0180</t>
+  </si>
+  <si>
+    <t>CSCI 0190</t>
+  </si>
+  <si>
+    <t>CSCI 0220</t>
+  </si>
+  <si>
+    <t>CSCI 0320</t>
+  </si>
+  <si>
+    <t>CSCI 0330</t>
+  </si>
+  <si>
+    <t>CSCI 0530</t>
+  </si>
+  <si>
+    <t>CSCI 1010</t>
+  </si>
+  <si>
+    <t>CSCI 1230</t>
+  </si>
+  <si>
+    <t>CSCI 1250</t>
+  </si>
+  <si>
+    <t>CSCI 1260</t>
+  </si>
+  <si>
+    <t>CSCI 1270</t>
+  </si>
+  <si>
+    <t>CSCI 1280</t>
+  </si>
+  <si>
+    <t>CSCI 1300</t>
+  </si>
+  <si>
+    <t>CSCI 1320</t>
+  </si>
+  <si>
+    <t>CSCI 1370</t>
+  </si>
+  <si>
+    <t>CSCI 1380</t>
+  </si>
+  <si>
+    <t>CSCI 1410</t>
+  </si>
+  <si>
+    <t>CSCI 1420</t>
+  </si>
+  <si>
+    <t>CSCI 1430</t>
+  </si>
+  <si>
+    <t>CSCI 1450</t>
+  </si>
+  <si>
+    <t>CSCI 1460</t>
+  </si>
+  <si>
+    <t>CSCI 1470</t>
+  </si>
+  <si>
+    <t>CSCI 1550</t>
+  </si>
+  <si>
+    <t>CSCI 1570</t>
+  </si>
+  <si>
+    <t>CSCI 1600</t>
+  </si>
+  <si>
+    <t>CSCI 1650</t>
+  </si>
+  <si>
+    <t>CSCI 1670</t>
+  </si>
+  <si>
+    <t>CSCI 1680</t>
+  </si>
+  <si>
+    <t>CSCI 1730</t>
+  </si>
+  <si>
+    <t>CSCI 1800</t>
+  </si>
+  <si>
+    <t>CSCI 1805</t>
+  </si>
+  <si>
+    <t>CSCI 1810</t>
+  </si>
+  <si>
+    <t>CSCI 1820</t>
+  </si>
+  <si>
+    <t>CSCI 1870</t>
+  </si>
+  <si>
+    <t>CSCI 1900</t>
+  </si>
+  <si>
+    <t>CSCI 0050</t>
+  </si>
+  <si>
+    <t>The Digital World</t>
+  </si>
+  <si>
+    <t>Introduction to Computation for the Humanitites and Social Sciences</t>
+  </si>
+  <si>
+    <t>Introduction to Scientific Computing and Problem Solving</t>
+  </si>
+  <si>
+    <t>A Data-Centric Introduction to Programming</t>
+  </si>
+  <si>
+    <t>Data Fluency for All</t>
+  </si>
+  <si>
+    <t>Computing Foundations: Data</t>
+  </si>
+  <si>
+    <t>User Interfaces and User Experience</t>
+  </si>
+  <si>
+    <t>Introduction to Object-Oriented Programming and Computer Science</t>
+  </si>
+  <si>
+    <t>Introduction to Algorithms and Data Structures</t>
+  </si>
+  <si>
+    <t>Computer Science: An Integrated Introduction</t>
+  </si>
+  <si>
+    <t>Accelerated Introduction to Computer Science</t>
+  </si>
+  <si>
+    <t>Introduction to Discrete Structures and Probability</t>
+  </si>
+  <si>
+    <t>Introduction to Software Engineering</t>
+  </si>
+  <si>
+    <t>Introduction to Computer Systems</t>
+  </si>
+  <si>
+    <t>Coding the Matrix: An Introduction to Linear Algebra for Computer Science</t>
+  </si>
+  <si>
+    <t>Theory of Computation</t>
+  </si>
+  <si>
+    <t>Introduction to Computer Graphics</t>
+  </si>
+  <si>
+    <t>Introduction to Computer Animation</t>
+  </si>
+  <si>
+    <t>Compilers and Program Analysis</t>
+  </si>
+  <si>
+    <t>Database Management Systems</t>
+  </si>
+  <si>
+    <t>Intermediate 3D Computer Animation</t>
+  </si>
+  <si>
+    <t>Creating Modern Web &amp; Mobile Applications</t>
+  </si>
+  <si>
+    <t>Virtual Reality Design for Science</t>
+  </si>
+  <si>
+    <t>Distributed Computer Systems</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Computer Vision</t>
+  </si>
+  <si>
+    <t>Probability for Computing and Data Analysis</t>
+  </si>
+  <si>
+    <t>Computational Linguistics</t>
+  </si>
+  <si>
+    <t>Deep Learning</t>
+  </si>
+  <si>
+    <t>Probabilistic Methods in Computer Science</t>
+  </si>
+  <si>
+    <t>Design and Analysis of Algorithms</t>
+  </si>
+  <si>
+    <t>Real-Time and Embedded Software</t>
+  </si>
+  <si>
+    <t>Software Security and Exploitation</t>
+  </si>
+  <si>
+    <t>Operating Systems</t>
+  </si>
+  <si>
+    <t>Computer Networks</t>
+  </si>
+  <si>
+    <t>Design and Implementation of Programming Languages</t>
+  </si>
+  <si>
+    <t>Cybersecurity and International Relations</t>
+  </si>
+  <si>
+    <t>Computers, Freedom, and Privacy</t>
+  </si>
+  <si>
+    <t>Computational Molecular Biology</t>
+  </si>
+  <si>
+    <t>Algorithmic Foundations of Computational Biology</t>
+  </si>
+  <si>
+    <t>Cybersecurity Ethics</t>
+  </si>
+  <si>
+    <t>csciStartup</t>
   </si>
 </sst>
 </file>
@@ -1118,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF0174-35EF-4838-880B-C4F8D4E4CC9D}">
-  <dimension ref="A2:K41"/>
+  <dimension ref="A2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="L16" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,9 +1398,11 @@
     <col min="8" max="8" width="53.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="78.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1161,8 +1427,14 @@
       <c r="K2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1187,8 +1459,14 @@
       <c r="K3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>245</v>
+      </c>
+      <c r="N3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1213,8 +1491,14 @@
       <c r="K4" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>246</v>
+      </c>
+      <c r="N4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1239,8 +1523,14 @@
       <c r="K5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>247</v>
+      </c>
+      <c r="N5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1265,8 +1555,14 @@
       <c r="K6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>289</v>
+      </c>
+      <c r="N6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1291,8 +1587,14 @@
       <c r="K7" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>248</v>
+      </c>
+      <c r="N7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1317,8 +1619,14 @@
       <c r="K8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>249</v>
+      </c>
+      <c r="N8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1651,14 @@
       <c r="K9" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>250</v>
+      </c>
+      <c r="N9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1369,8 +1683,14 @@
       <c r="K10" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>251</v>
+      </c>
+      <c r="N10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1395,8 +1715,14 @@
       <c r="K11" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>252</v>
+      </c>
+      <c r="N11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1421,8 +1747,14 @@
       <c r="K12" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>253</v>
+      </c>
+      <c r="N12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1447,8 +1779,14 @@
       <c r="K13" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>254</v>
+      </c>
+      <c r="N13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1473,8 +1811,14 @@
       <c r="K14" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>255</v>
+      </c>
+      <c r="N14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1499,8 +1843,14 @@
       <c r="K15" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>256</v>
+      </c>
+      <c r="N15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1525,8 +1875,14 @@
       <c r="K16" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>257</v>
+      </c>
+      <c r="N16" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1551,8 +1907,14 @@
       <c r="K17" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>258</v>
+      </c>
+      <c r="N17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1577,8 +1939,14 @@
       <c r="K18" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>259</v>
+      </c>
+      <c r="N18" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1603,8 +1971,14 @@
       <c r="K19" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>260</v>
+      </c>
+      <c r="N19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1629,8 +2003,14 @@
       <c r="K20" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>261</v>
+      </c>
+      <c r="N20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1655,8 +2035,14 @@
       <c r="K21" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>262</v>
+      </c>
+      <c r="N21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1681,8 +2067,14 @@
       <c r="K22" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>263</v>
+      </c>
+      <c r="N22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1707,8 +2099,14 @@
       <c r="K23" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>264</v>
+      </c>
+      <c r="N23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -1727,8 +2125,14 @@
       <c r="K24" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>265</v>
+      </c>
+      <c r="N24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1747,8 +2151,14 @@
       <c r="K25" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>266</v>
+      </c>
+      <c r="N25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1767,8 +2177,14 @@
       <c r="K26" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>267</v>
+      </c>
+      <c r="N26" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1787,8 +2203,14 @@
       <c r="K27" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>268</v>
+      </c>
+      <c r="N27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1807,8 +2229,14 @@
       <c r="K28" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>269</v>
+      </c>
+      <c r="N28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1821,8 +2249,14 @@
       <c r="E29" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>270</v>
+      </c>
+      <c r="N29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1835,8 +2269,14 @@
       <c r="E30" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>271</v>
+      </c>
+      <c r="N30" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1849,8 +2289,14 @@
       <c r="E31" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>272</v>
+      </c>
+      <c r="N31" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1863,8 +2309,14 @@
       <c r="E32" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>273</v>
+      </c>
+      <c r="N32" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1877,8 +2329,14 @@
       <c r="E33" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>274</v>
+      </c>
+      <c r="N33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -1891,61 +2349,157 @@
       <c r="E34" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>275</v>
+      </c>
+      <c r="N34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>65</v>
       </c>
       <c r="E35" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>276</v>
+      </c>
+      <c r="N35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>66</v>
       </c>
       <c r="E36" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>277</v>
+      </c>
+      <c r="N36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>67</v>
       </c>
       <c r="E37" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>278</v>
+      </c>
+      <c r="N37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>68</v>
       </c>
       <c r="E38" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>279</v>
+      </c>
+      <c r="N38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>69</v>
       </c>
       <c r="E39" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>280</v>
+      </c>
+      <c r="N39" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>70</v>
       </c>
       <c r="E40" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>281</v>
+      </c>
+      <c r="N40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>71</v>
       </c>
       <c r="E41" t="s">
         <v>124</v>
+      </c>
+      <c r="M41" t="s">
+        <v>282</v>
+      </c>
+      <c r="N41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>283</v>
+      </c>
+      <c r="N42" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>284</v>
+      </c>
+      <c r="N43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>285</v>
+      </c>
+      <c r="N44" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>286</v>
+      </c>
+      <c r="N45" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>287</v>
+      </c>
+      <c r="N46" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>288</v>
+      </c>
+      <c r="N47" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43589D57-DB2B-4B6E-9C42-C98F94394749}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EECB13-E95F-468D-AAC4-5843A049AD2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="975" windowWidth="21600" windowHeight="11385" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="340">
   <si>
     <t>course_code</t>
   </si>
@@ -1031,6 +1031,27 @@
   </si>
   <si>
     <t>csciStartup</t>
+  </si>
+  <si>
+    <t>apma AB</t>
+  </si>
+  <si>
+    <t>ODEs</t>
+  </si>
+  <si>
+    <t>PDEs</t>
+  </si>
+  <si>
+    <t>Computer Science</t>
+  </si>
+  <si>
+    <t>4 1000-level Apma classes</t>
+  </si>
+  <si>
+    <t>One couse to be approved</t>
+  </si>
+  <si>
+    <t>FLEX 0000</t>
   </si>
 </sst>
 </file>
@@ -1384,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF0174-35EF-4838-880B-C4F8D4E4CC9D}">
   <dimension ref="A2:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L16" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,10 +2531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96243044-DAFC-4DB6-9967-18D55104159C}">
-  <dimension ref="A2:G56"/>
+  <dimension ref="A2:P56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2528,12 +2549,15 @@
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -2546,8 +2570,29 @@
       <c r="D3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" t="s">
+        <v>334</v>
+      </c>
+      <c r="M3" t="s">
+        <v>335</v>
+      </c>
+      <c r="N3" t="s">
+        <v>336</v>
+      </c>
+      <c r="O3" t="s">
+        <v>337</v>
+      </c>
+      <c r="P3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2560,8 +2605,29 @@
       <c r="D4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2640,29 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>156</v>
+      </c>
+      <c r="M5" t="s">
+        <v>157</v>
+      </c>
+      <c r="N5" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2585,91 +2672,151 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" t="s">
+        <v>247</v>
+      </c>
+      <c r="O6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>251</v>
+      </c>
+      <c r="O7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -2692,7 +2839,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2715,7 +2862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2738,7 +2885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2752,7 +2899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -2760,7 +2907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>47</v>
       </c>

--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EECB13-E95F-468D-AAC4-5843A049AD2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0126A0-56E3-4B96-A68C-62E47A417CC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
+    <workbookView xWindow="810" yWindow="2385" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="349">
   <si>
     <t>course_code</t>
   </si>
@@ -1052,16 +1052,49 @@
   </si>
   <si>
     <t>FLEX 0000</t>
+  </si>
+  <si>
+    <t>math-cs SCB</t>
+  </si>
+  <si>
+    <t>Semester 1 Intro</t>
+  </si>
+  <si>
+    <t>Semester 2 Intro</t>
+  </si>
+  <si>
+    <t>Intermediate Systems</t>
+  </si>
+  <si>
+    <t>Intermediate Math</t>
+  </si>
+  <si>
+    <t>3 1000-level math courses</t>
+  </si>
+  <si>
+    <t>3 Advanced Courses in Computer Science</t>
+  </si>
+  <si>
+    <t>Capstone Course</t>
+  </si>
+  <si>
+    <t>CAPS 0000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1405,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF0174-35EF-4838-880B-C4F8D4E4CC9D}">
   <dimension ref="A2:N47"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="L17" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2531,10 +2564,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96243044-DAFC-4DB6-9967-18D55104159C}">
-  <dimension ref="A2:P56"/>
+  <dimension ref="A2:AC56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2549,15 +2582,18 @@
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -2591,8 +2627,32 @@
       <c r="P3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" t="s">
+        <v>341</v>
+      </c>
+      <c r="X3" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>344</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2626,8 +2686,32 @@
       <c r="P4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
+      </c>
+      <c r="AB4">
+        <v>3</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2745,32 @@
       <c r="P5" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" t="s">
+        <v>251</v>
+      </c>
+      <c r="X5" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>256</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2684,8 +2792,26 @@
       <c r="O6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="W6" t="s">
+        <v>253</v>
+      </c>
+      <c r="X6" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2701,8 +2827,20 @@
       <c r="O7" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="W7" t="s">
+        <v>255</v>
+      </c>
+      <c r="X7" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>12</v>
       </c>
@@ -2712,111 +2850,215 @@
       <c r="O8" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AA8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="O9" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AA9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="O10" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AA10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="O11" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AA11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="O12" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AA12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="O13" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AA13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="O14" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AA14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>18</v>
       </c>
       <c r="O15" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AA15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>19</v>
       </c>
       <c r="O16" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="O17" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="O18" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="O19" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AA20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AB21" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB23" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AB26" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -2838,8 +3080,11 @@
       <c r="G27" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AB27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2861,8 +3106,11 @@
       <c r="G28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AB28" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2884,8 +3132,11 @@
       <c r="G29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AB29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
@@ -2898,96 +3149,114 @@
       <c r="G30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AB30" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="AB31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="AB32" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="AB33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="AB34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="AB35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>63</v>
       </c>
@@ -3033,6 +3302,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0126A0-56E3-4B96-A68C-62E47A417CC3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E86CAC-91DE-4945-80DB-0545FDA49EC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="2385" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="400">
   <si>
     <t>course_code</t>
   </si>
@@ -1079,6 +1079,159 @@
   </si>
   <si>
     <t>CAPS 0000</t>
+  </si>
+  <si>
+    <t>FREN 0100</t>
+  </si>
+  <si>
+    <t>FREN 0200</t>
+  </si>
+  <si>
+    <t>FREN 0220</t>
+  </si>
+  <si>
+    <t>FREN 0300</t>
+  </si>
+  <si>
+    <t>FREN 0400</t>
+  </si>
+  <si>
+    <t>FREN 0500</t>
+  </si>
+  <si>
+    <t>FREN 0600</t>
+  </si>
+  <si>
+    <t>FREN 0620</t>
+  </si>
+  <si>
+    <t>FREN 0720F</t>
+  </si>
+  <si>
+    <t>FREN 0720G</t>
+  </si>
+  <si>
+    <t>FREN 0820B</t>
+  </si>
+  <si>
+    <t>FREN 1020A</t>
+  </si>
+  <si>
+    <t>FREN 1040C</t>
+  </si>
+  <si>
+    <t>FREN 1130E</t>
+  </si>
+  <si>
+    <t>FREN 1140A</t>
+  </si>
+  <si>
+    <t>FREN 1310P</t>
+  </si>
+  <si>
+    <t>FREN 1410I</t>
+  </si>
+  <si>
+    <t>FREN 1410T</t>
+  </si>
+  <si>
+    <t>FREN 1410U</t>
+  </si>
+  <si>
+    <t>FREN 1410V</t>
+  </si>
+  <si>
+    <t>FREN 1510J</t>
+  </si>
+  <si>
+    <t>FREN 1510L</t>
+  </si>
+  <si>
+    <t>FREN 1610C</t>
+  </si>
+  <si>
+    <t>FREN 1710H</t>
+  </si>
+  <si>
+    <t>FREN 1710I</t>
+  </si>
+  <si>
+    <t>FREN 1900M</t>
+  </si>
+  <si>
+    <t>Basic French</t>
+  </si>
+  <si>
+    <t>Reading French in the Arts and Sciences</t>
+  </si>
+  <si>
+    <t>Intermediate French I</t>
+  </si>
+  <si>
+    <t>Intermediate French II</t>
+  </si>
+  <si>
+    <t>Writing and Speaking French I</t>
+  </si>
+  <si>
+    <t>Writing and Speaking French II</t>
+  </si>
+  <si>
+    <t>Writing and Speaking French II: Literature - L'inquietant etranger</t>
+  </si>
+  <si>
+    <t>Paradigms of Difference in the 19th-Century French Novel and Short Story</t>
+  </si>
+  <si>
+    <t>L'art de la nouvelle</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que l'identite</t>
+  </si>
+  <si>
+    <t>Histoire de la langue francaise: usages, politiques et enjeux du francais</t>
+  </si>
+  <si>
+    <t>La Grand Siecle a l'ecran</t>
+  </si>
+  <si>
+    <t>Le Poetique et le quotidien</t>
+  </si>
+  <si>
+    <t>French Theory</t>
+  </si>
+  <si>
+    <t>La theorie feministe en France</t>
+  </si>
+  <si>
+    <t>Sorcellerie et Renaissance: le sort de la sorciere</t>
+  </si>
+  <si>
+    <t>L'experience des refugies: deplacements, migrations</t>
+  </si>
+  <si>
+    <t>La France en guerre</t>
+  </si>
+  <si>
+    <t>French-American (Dis)Connections: histoire, societe, culture</t>
+  </si>
+  <si>
+    <t>Advanced Oral and Written French: Photographie</t>
+  </si>
+  <si>
+    <t>A nous deux la monde</t>
+  </si>
+  <si>
+    <t>Advanced Written French: Atelier d'ecriture</t>
+  </si>
+  <si>
+    <t>Villes africaines</t>
+  </si>
+  <si>
+    <t>Politique, democratie, et corruption en Afrique francophone</t>
+  </si>
+  <si>
+    <t>La question animale</t>
   </si>
 </sst>
 </file>
@@ -1436,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF0174-35EF-4838-880B-C4F8D4E4CC9D}">
-  <dimension ref="A2:N47"/>
+  <dimension ref="A2:Q47"/>
   <sheetViews>
-    <sheetView topLeftCell="L17" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19:M47"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,9 +1607,11 @@
     <col min="11" max="11" width="78.140625" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="64.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="67.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1487,8 +1642,14 @@
       <c r="N2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1519,8 +1680,14 @@
       <c r="N3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1551,8 +1718,14 @@
       <c r="N4" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1583,8 +1756,14 @@
       <c r="N5" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1615,8 +1794,14 @@
       <c r="N6" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1647,8 +1832,14 @@
       <c r="N7" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1679,8 +1870,14 @@
       <c r="N8" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1711,8 +1908,14 @@
       <c r="N9" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1743,8 +1946,14 @@
       <c r="N10" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1775,8 +1984,14 @@
       <c r="N11" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1807,8 +2022,14 @@
       <c r="N12" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1839,8 +2060,14 @@
       <c r="N13" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1871,8 +2098,14 @@
       <c r="N14" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1903,8 +2136,14 @@
       <c r="N15" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1935,8 +2174,14 @@
       <c r="N16" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2212,14 @@
       <c r="N17" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1999,8 +2250,14 @@
       <c r="N18" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2031,8 +2288,14 @@
       <c r="N19" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -2063,8 +2326,14 @@
       <c r="N20" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2095,8 +2364,14 @@
       <c r="N21" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2127,8 +2402,14 @@
       <c r="N22" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2159,8 +2440,14 @@
       <c r="N23" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -2185,8 +2472,14 @@
       <c r="N24" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2211,8 +2504,14 @@
       <c r="N25" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -2237,8 +2536,14 @@
       <c r="N26" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -2263,8 +2568,14 @@
       <c r="N27" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2289,8 +2600,14 @@
       <c r="N28" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2310,7 +2627,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2330,7 +2647,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -2350,7 +2667,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -2566,7 +2883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96243044-DAFC-4DB6-9967-18D55104159C}">
   <dimension ref="A2:AC56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>

--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E86CAC-91DE-4945-80DB-0545FDA49EC9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2385D51E-71A1-4D4B-BC6E-4680E84FCE1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
+    <workbookView xWindow="0" yWindow="1230" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="400">
   <si>
     <t>course_code</t>
   </si>
@@ -106,9 +106,6 @@
     <t>MATH 1620</t>
   </si>
   <si>
-    <t>MATH 750</t>
-  </si>
-  <si>
     <t>MATH 0060</t>
   </si>
   <si>
@@ -1232,6 +1229,9 @@
   </si>
   <si>
     <t>La question animale</t>
+  </si>
+  <si>
+    <t>The year-long sequence of Math 0750/ Math 0760 may be substituted for one 1000-level Math Course. Selecting Math 0750 will add it and Math 0760 to your requirements</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF0174-35EF-4838-880B-C4F8D4E4CC9D}">
   <dimension ref="A2:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -1616,265 +1616,265 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P2" t="s">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="N8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1882,75 +1882,75 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="N10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1958,37 +1958,37 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1996,75 +1996,75 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2072,37 +2072,37 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2110,113 +2110,113 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="N15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -2224,37 +2224,37 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2262,37 +2262,37 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q19" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2300,37 +2300,37 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2338,37 +2338,37 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2376,37 +2376,37 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -2414,37 +2414,37 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P23" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q23" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2452,31 +2452,31 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -2484,31 +2484,31 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -2516,31 +2516,31 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -2548,31 +2548,31 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2580,31 +2580,31 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="N28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2612,19 +2612,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -2632,19 +2632,19 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -2652,19 +2652,19 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -2672,19 +2672,19 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N32" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2692,19 +2692,19 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N33" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2712,165 +2712,165 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N39" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N44" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -2883,8 +2883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96243044-DAFC-4DB6-9967-18D55104159C}">
   <dimension ref="A2:AC56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,72 +2901,75 @@
   <sheetData>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
       <c r="J3" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" t="s">
         <v>72</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>333</v>
+      </c>
+      <c r="M3" t="s">
+        <v>334</v>
+      </c>
+      <c r="N3" t="s">
+        <v>335</v>
+      </c>
+      <c r="O3" t="s">
+        <v>336</v>
+      </c>
+      <c r="P3" t="s">
+        <v>337</v>
+      </c>
+      <c r="V3" t="s">
         <v>73</v>
       </c>
-      <c r="L3" t="s">
-        <v>334</v>
-      </c>
-      <c r="M3" t="s">
-        <v>335</v>
-      </c>
-      <c r="N3" t="s">
-        <v>336</v>
-      </c>
-      <c r="O3" t="s">
-        <v>337</v>
-      </c>
-      <c r="P3" t="s">
-        <v>338</v>
-      </c>
-      <c r="V3" t="s">
-        <v>74</v>
-      </c>
       <c r="W3" t="s">
+        <v>340</v>
+      </c>
+      <c r="X3" t="s">
         <v>341</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>342</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>343</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>344</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>345</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>346</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -3048,43 +3051,43 @@
         <v>6</v>
       </c>
       <c r="L5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5" t="s">
         <v>156</v>
       </c>
-      <c r="M5" t="s">
-        <v>157</v>
-      </c>
       <c r="N5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V5" t="s">
         <v>8</v>
       </c>
       <c r="W5" t="s">
+        <v>250</v>
+      </c>
+      <c r="X5" t="s">
         <v>251</v>
       </c>
-      <c r="X5" t="s">
-        <v>252</v>
-      </c>
       <c r="Y5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Z5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AA5" t="s">
         <v>9</v>
       </c>
       <c r="AB5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AC5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -3104,28 +3107,28 @@
         <v>7</v>
       </c>
       <c r="N6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W6" t="s">
+        <v>252</v>
+      </c>
+      <c r="X6" t="s">
         <v>253</v>
       </c>
-      <c r="X6" t="s">
-        <v>254</v>
-      </c>
       <c r="Y6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Z6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AA6" t="s">
         <v>10</v>
       </c>
       <c r="AB6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -3139,22 +3142,22 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="X7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AA7" t="s">
         <v>11</v>
       </c>
       <c r="AB7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
@@ -3162,16 +3165,16 @@
         <v>12</v>
       </c>
       <c r="N8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA8" t="s">
         <v>12</v>
       </c>
       <c r="AB8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -3179,13 +3182,13 @@
         <v>13</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA9" t="s">
         <v>13</v>
       </c>
       <c r="AB9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
@@ -3193,13 +3196,13 @@
         <v>14</v>
       </c>
       <c r="O10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA10" t="s">
         <v>14</v>
       </c>
       <c r="AB10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -3207,13 +3210,13 @@
         <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AA11" t="s">
         <v>2</v>
       </c>
       <c r="AB11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -3221,13 +3224,13 @@
         <v>15</v>
       </c>
       <c r="O12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AA12" t="s">
         <v>15</v>
       </c>
       <c r="AB12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -3235,13 +3238,13 @@
         <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA13" t="s">
         <v>17</v>
       </c>
       <c r="AB13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
@@ -3249,13 +3252,13 @@
         <v>16</v>
       </c>
       <c r="O14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AA14" t="s">
         <v>16</v>
       </c>
       <c r="AB14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -3263,13 +3266,13 @@
         <v>18</v>
       </c>
       <c r="O15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AA15" t="s">
         <v>18</v>
       </c>
       <c r="AB15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
@@ -3277,13 +3280,13 @@
         <v>19</v>
       </c>
       <c r="O16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AA16" t="s">
         <v>19</v>
       </c>
       <c r="AB16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -3291,13 +3294,13 @@
         <v>20</v>
       </c>
       <c r="O17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AA17" t="s">
         <v>20</v>
       </c>
       <c r="AB17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -3305,13 +3308,13 @@
         <v>21</v>
       </c>
       <c r="O18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA18" t="s">
         <v>21</v>
       </c>
       <c r="AB18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -3319,13 +3322,13 @@
         <v>22</v>
       </c>
       <c r="O19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AA19" t="s">
         <v>22</v>
       </c>
       <c r="AB19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -3336,69 +3339,69 @@
         <v>23</v>
       </c>
       <c r="AB20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AB21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>78</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>79</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>80</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>81</v>
       </c>
-      <c r="G27" t="s">
-        <v>82</v>
-      </c>
       <c r="AB27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -3424,198 +3427,198 @@
         <v>5</v>
       </c>
       <c r="AB28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
         <v>37</v>
       </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
       <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
         <v>40</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>41</v>
       </c>
-      <c r="F29" t="s">
-        <v>42</v>
-      </c>
       <c r="G29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2385D51E-71A1-4D4B-BC6E-4680E84FCE1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B492A30-2617-47A6-93C7-790AD84601A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1230" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="405">
   <si>
     <t>course_code</t>
   </si>
@@ -1075,9 +1075,6 @@
     <t>Capstone Course</t>
   </si>
   <si>
-    <t>CAPS 0000</t>
-  </si>
-  <si>
     <t>FREN 0100</t>
   </si>
   <si>
@@ -1232,6 +1229,24 @@
   </si>
   <si>
     <t>The year-long sequence of Math 0750/ Math 0760 may be substituted for one 1000-level Math Course. Selecting Math 0750 will add it and Math 0760 to your requirements</t>
+  </si>
+  <si>
+    <t>If ECON 0110 is exempted, you must take an additional 1000-level Econ class</t>
+  </si>
+  <si>
+    <t>Flex Course</t>
+  </si>
+  <si>
+    <t>APMA 0330 and APMA 0340 will sometimes be accepted in place of APMA 0350 and APMA 0360</t>
+  </si>
+  <si>
+    <t>Capstone</t>
+  </si>
+  <si>
+    <t>Two 1000-level and one intermediate CS courses must satisfy a CS pathway. Check concentrations for more info.</t>
+  </si>
+  <si>
+    <t>3 Advanced Courses in Math, CS, Aplied Math, or related</t>
   </si>
 </sst>
 </file>
@@ -1681,10 +1696,10 @@
         <v>289</v>
       </c>
       <c r="P3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1719,10 +1734,10 @@
         <v>290</v>
       </c>
       <c r="P4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1757,10 +1772,10 @@
         <v>291</v>
       </c>
       <c r="P5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1795,10 +1810,10 @@
         <v>292</v>
       </c>
       <c r="P6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1833,10 +1848,10 @@
         <v>293</v>
       </c>
       <c r="P7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1871,10 +1886,10 @@
         <v>294</v>
       </c>
       <c r="P8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1909,10 +1924,10 @@
         <v>295</v>
       </c>
       <c r="P9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1947,10 +1962,10 @@
         <v>296</v>
       </c>
       <c r="P10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1985,10 +2000,10 @@
         <v>297</v>
       </c>
       <c r="P11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2023,10 +2038,10 @@
         <v>298</v>
       </c>
       <c r="P12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2061,10 +2076,10 @@
         <v>298</v>
       </c>
       <c r="P13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2099,10 +2114,10 @@
         <v>299</v>
       </c>
       <c r="P14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2137,10 +2152,10 @@
         <v>300</v>
       </c>
       <c r="P15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2175,10 +2190,10 @@
         <v>301</v>
       </c>
       <c r="P16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -2213,10 +2228,10 @@
         <v>302</v>
       </c>
       <c r="P17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -2251,10 +2266,10 @@
         <v>303</v>
       </c>
       <c r="P18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2289,10 +2304,10 @@
         <v>304</v>
       </c>
       <c r="P19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2327,10 +2342,10 @@
         <v>305</v>
       </c>
       <c r="P20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2365,10 +2380,10 @@
         <v>306</v>
       </c>
       <c r="P21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2403,10 +2418,10 @@
         <v>307</v>
       </c>
       <c r="P22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -2441,10 +2456,10 @@
         <v>308</v>
       </c>
       <c r="P23" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2473,10 +2488,10 @@
         <v>309</v>
       </c>
       <c r="P24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -2505,10 +2520,10 @@
         <v>295</v>
       </c>
       <c r="P25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -2537,10 +2552,10 @@
         <v>310</v>
       </c>
       <c r="P26" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -2569,10 +2584,10 @@
         <v>311</v>
       </c>
       <c r="P27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2601,10 +2616,10 @@
         <v>312</v>
       </c>
       <c r="P28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Q28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2881,10 +2896,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96243044-DAFC-4DB6-9967-18D55104159C}">
-  <dimension ref="A2:AC56"/>
+  <dimension ref="A2:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2899,21 +2914,27 @@
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>401</v>
+      </c>
+      <c r="K2" t="s">
         <v>332</v>
       </c>
       <c r="V2" t="s">
+        <v>403</v>
+      </c>
+      <c r="W2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -2969,10 +2990,13 @@
         <v>345</v>
       </c>
       <c r="AC3" t="s">
+        <v>404</v>
+      </c>
+      <c r="AD3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3028,10 +3052,13 @@
         <v>3</v>
       </c>
       <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AD4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3063,7 +3090,7 @@
         <v>158</v>
       </c>
       <c r="P5" t="s">
-        <v>338</v>
+        <v>400</v>
       </c>
       <c r="V5" t="s">
         <v>8</v>
@@ -3087,10 +3114,13 @@
         <v>259</v>
       </c>
       <c r="AC5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3106,6 +3136,12 @@
       <c r="K6" t="s">
         <v>7</v>
       </c>
+      <c r="L6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" t="s">
+        <v>154</v>
+      </c>
       <c r="N6" t="s">
         <v>246</v>
       </c>
@@ -3130,8 +3166,11 @@
       <c r="AB6" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3159,8 +3198,11 @@
       <c r="AB7" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>12</v>
       </c>
@@ -3177,7 +3219,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>13</v>
       </c>
@@ -3191,7 +3233,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>14</v>
       </c>
@@ -3205,7 +3247,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>2</v>
       </c>
@@ -3219,7 +3261,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>15</v>
       </c>
@@ -3233,7 +3275,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>17</v>
       </c>
@@ -3247,7 +3289,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>16</v>
       </c>
@@ -3261,7 +3303,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>18</v>
       </c>
@@ -3275,7 +3317,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>19</v>
       </c>
@@ -3372,6 +3414,9 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>399</v>
+      </c>
+      <c r="B26" t="s">
         <v>33</v>
       </c>
       <c r="AB26" t="s">

--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B492A30-2617-47A6-93C7-790AD84601A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FC91D6-95BA-45D2-B876-6D4ECE97FE0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1230" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="468">
   <si>
     <t>course_code</t>
   </si>
@@ -1247,6 +1247,195 @@
   </si>
   <si>
     <t>3 Advanced Courses in Math, CS, Aplied Math, or related</t>
+  </si>
+  <si>
+    <t>HISP 0100</t>
+  </si>
+  <si>
+    <t>HISP 0110</t>
+  </si>
+  <si>
+    <t>HISP 0200</t>
+  </si>
+  <si>
+    <t>HISP 0300</t>
+  </si>
+  <si>
+    <t>HISP 0400</t>
+  </si>
+  <si>
+    <t>HISP 0490A</t>
+  </si>
+  <si>
+    <t>HISP 0500</t>
+  </si>
+  <si>
+    <t>HISP 0600</t>
+  </si>
+  <si>
+    <t>HISP 0710B</t>
+  </si>
+  <si>
+    <t>HISP 0710C</t>
+  </si>
+  <si>
+    <t>HISP 0710E</t>
+  </si>
+  <si>
+    <t>HISP 0730</t>
+  </si>
+  <si>
+    <t>HISP 0740</t>
+  </si>
+  <si>
+    <t>HISP 0750B</t>
+  </si>
+  <si>
+    <t>HISP 0750 O</t>
+  </si>
+  <si>
+    <t>HISP 0750T</t>
+  </si>
+  <si>
+    <t>HISP 0760</t>
+  </si>
+  <si>
+    <t>HISP 1020A</t>
+  </si>
+  <si>
+    <t>HISP 1210F</t>
+  </si>
+  <si>
+    <t>HISP 1240A</t>
+  </si>
+  <si>
+    <t>HISP 1330T</t>
+  </si>
+  <si>
+    <t>HISP 1330U</t>
+  </si>
+  <si>
+    <t>HISP 1330X</t>
+  </si>
+  <si>
+    <t>HISP 1330Z</t>
+  </si>
+  <si>
+    <t>HISP 1331F</t>
+  </si>
+  <si>
+    <t>HISP 1331G</t>
+  </si>
+  <si>
+    <t>HISP 1370Y</t>
+  </si>
+  <si>
+    <t>HISP 1371E</t>
+  </si>
+  <si>
+    <t>HISP 1371F</t>
+  </si>
+  <si>
+    <t>HISP 1500L</t>
+  </si>
+  <si>
+    <t>HISP 1700B</t>
+  </si>
+  <si>
+    <t>Basic Spanish</t>
+  </si>
+  <si>
+    <t>Intensive Basic Spanish</t>
+  </si>
+  <si>
+    <t>Intermediate Spanish I</t>
+  </si>
+  <si>
+    <t>Intermediate Spanish II</t>
+  </si>
+  <si>
+    <t>Spanish for Health Care Workers</t>
+  </si>
+  <si>
+    <t>Advanced Spanish I</t>
+  </si>
+  <si>
+    <t>Advanced Spanish II</t>
+  </si>
+  <si>
+    <t>Hispanic Culture Through Cinema</t>
+  </si>
+  <si>
+    <t>Introduccion a la linguistica hispanica</t>
+  </si>
+  <si>
+    <t>Introduction to Professional Translation and Interpretation</t>
+  </si>
+  <si>
+    <t>Encounters: Latin America in Its Literature and Culture</t>
+  </si>
+  <si>
+    <t>Intensive Survey of Spanish Literature</t>
+  </si>
+  <si>
+    <t>The Latin American Diaspora in the US</t>
+  </si>
+  <si>
+    <t>Cultural Studies in Spanish America</t>
+  </si>
+  <si>
+    <t>Around Latin America in 80 Days: An Historical and Cultural Journey (LACA 0500)</t>
+  </si>
+  <si>
+    <t>Transatlantic Crossings: Readings in Hispanic Literatures</t>
+  </si>
+  <si>
+    <t>Spanish Civil War in Literature and the Visual Arts</t>
+  </si>
+  <si>
+    <t>History of the Spanish Language</t>
+  </si>
+  <si>
+    <t>Fashion and Fiction in the Early Modern Hispanic World</t>
+  </si>
+  <si>
+    <t>El amor en espanol</t>
+  </si>
+  <si>
+    <t>Hauntings: Gothic Fictions, Banditry and the Supernatural in Latin America</t>
+  </si>
+  <si>
+    <t>The Nature of Conquest: Scientific Literatures of the Americas</t>
+  </si>
+  <si>
+    <t>Tropical Fictions: Geography and Literature in Latin American Culture</t>
+  </si>
+  <si>
+    <t>Visions and Voices of Indigenous Mexico</t>
+  </si>
+  <si>
+    <t>Museum Fictions</t>
+  </si>
+  <si>
+    <t>Latin American Horror (GNSS 1520)</t>
+  </si>
+  <si>
+    <t>Literature and Film of the Cuban Revolution</t>
+  </si>
+  <si>
+    <t>Como ser modernxs en America Latina</t>
+  </si>
+  <si>
+    <t>HISP 1331E</t>
+  </si>
+  <si>
+    <t>Narrating the Borderlands: Literature, Legality, and Solidarity</t>
+  </si>
+  <si>
+    <t>Theory and Practice of Translation</t>
+  </si>
+  <si>
+    <t>Rhythm and Silence: A Creative Writing Workshop</t>
   </si>
 </sst>
 </file>
@@ -1288,8 +1477,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1604,1288 +1796,2176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF0174-35EF-4838-880B-C4F8D4E4CC9D}">
-  <dimension ref="A2:Q47"/>
+  <dimension ref="A2:U47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="64.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="53.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="78.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="64.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="67.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>124</v>
       </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>124</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>124</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>124</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
       <c r="M2" t="s">
         <v>0</v>
       </c>
       <c r="N2" t="s">
         <v>124</v>
       </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
       <c r="P2" t="s">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>124</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>126</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3" t="s">
         <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>85</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
       <c r="G3" t="s">
         <v>152</v>
       </c>
       <c r="H3" t="s">
         <v>173</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3" t="s">
         <v>193</v>
       </c>
       <c r="K3" t="s">
         <v>219</v>
       </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
       <c r="M3" t="s">
         <v>244</v>
       </c>
       <c r="N3" t="s">
         <v>289</v>
       </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
       <c r="P3" t="s">
         <v>347</v>
       </c>
       <c r="Q3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>405</v>
+      </c>
+      <c r="T3" t="s">
+        <v>436</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>126</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4" t="s">
         <v>35</v>
       </c>
       <c r="E4" t="s">
         <v>86</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
       <c r="G4" t="s">
         <v>153</v>
       </c>
       <c r="H4" t="s">
         <v>174</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
         <v>194</v>
       </c>
       <c r="K4" t="s">
         <v>220</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
       <c r="M4" t="s">
         <v>245</v>
       </c>
       <c r="N4" t="s">
         <v>290</v>
       </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
       <c r="P4" t="s">
         <v>348</v>
       </c>
       <c r="Q4" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>406</v>
+      </c>
+      <c r="T4" t="s">
+        <v>437</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>127</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5" t="s">
         <v>82</v>
       </c>
       <c r="E5" t="s">
         <v>87</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="G5" t="s">
         <v>154</v>
       </c>
       <c r="H5" t="s">
         <v>175</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
         <v>195</v>
       </c>
       <c r="K5" t="s">
         <v>221</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
       <c r="M5" t="s">
         <v>246</v>
       </c>
       <c r="N5" t="s">
         <v>291</v>
       </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
       <c r="P5" t="s">
         <v>349</v>
       </c>
       <c r="Q5" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>407</v>
+      </c>
+      <c r="T5" t="s">
+        <v>436</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>128</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6" t="s">
         <v>83</v>
       </c>
       <c r="E6" t="s">
         <v>88</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
       <c r="G6" t="s">
         <v>155</v>
       </c>
       <c r="H6" t="s">
         <v>176</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6" t="s">
         <v>196</v>
       </c>
       <c r="K6" t="s">
         <v>222</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
       <c r="M6" t="s">
         <v>288</v>
       </c>
       <c r="N6" t="s">
         <v>292</v>
       </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
       <c r="P6" t="s">
         <v>350</v>
       </c>
       <c r="Q6" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>408</v>
+      </c>
+      <c r="T6" t="s">
+        <v>438</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>129</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7" t="s">
         <v>84</v>
       </c>
       <c r="E7" t="s">
         <v>89</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
       <c r="G7" t="s">
         <v>156</v>
       </c>
       <c r="H7" t="s">
         <v>177</v>
       </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7" t="s">
         <v>197</v>
       </c>
       <c r="K7" t="s">
         <v>223</v>
       </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
       <c r="M7" t="s">
         <v>247</v>
       </c>
       <c r="N7" t="s">
         <v>293</v>
       </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
       <c r="P7" t="s">
         <v>351</v>
       </c>
       <c r="Q7" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>409</v>
+      </c>
+      <c r="T7" t="s">
+        <v>439</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>125</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8" t="s">
         <v>37</v>
       </c>
       <c r="E8" t="s">
         <v>90</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
       <c r="G8" t="s">
         <v>157</v>
       </c>
       <c r="H8" t="s">
         <v>178</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="J8" t="s">
         <v>198</v>
       </c>
       <c r="K8" t="s">
         <v>224</v>
       </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
       <c r="M8" t="s">
         <v>248</v>
       </c>
       <c r="N8" t="s">
         <v>294</v>
       </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
       <c r="P8" t="s">
         <v>352</v>
       </c>
       <c r="Q8" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>410</v>
+      </c>
+      <c r="T8" t="s">
+        <v>440</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>130</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
       <c r="E9" t="s">
         <v>91</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
       <c r="G9" t="s">
         <v>158</v>
       </c>
       <c r="H9" t="s">
         <v>179</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9" t="s">
         <v>199</v>
       </c>
       <c r="K9" t="s">
         <v>225</v>
       </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
       <c r="M9" t="s">
         <v>249</v>
       </c>
       <c r="N9" t="s">
         <v>295</v>
       </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
       <c r="P9" t="s">
         <v>353</v>
       </c>
       <c r="Q9" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>411</v>
+      </c>
+      <c r="T9" t="s">
+        <v>441</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>131</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10" t="s">
         <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>92</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
       <c r="G10" t="s">
         <v>159</v>
       </c>
       <c r="H10" t="s">
         <v>180</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10" t="s">
         <v>200</v>
       </c>
       <c r="K10" t="s">
         <v>226</v>
       </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
       <c r="M10" t="s">
         <v>250</v>
       </c>
       <c r="N10" t="s">
         <v>296</v>
       </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
       <c r="P10" t="s">
         <v>354</v>
       </c>
       <c r="Q10" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>412</v>
+      </c>
+      <c r="T10" t="s">
+        <v>442</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>132</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
       <c r="E11" t="s">
         <v>93</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
       <c r="G11" t="s">
         <v>160</v>
       </c>
       <c r="H11" t="s">
         <v>181</v>
       </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
       <c r="J11" t="s">
         <v>201</v>
       </c>
       <c r="K11" t="s">
         <v>227</v>
       </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
       <c r="M11" t="s">
         <v>251</v>
       </c>
       <c r="N11" t="s">
         <v>297</v>
       </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
       <c r="P11" t="s">
         <v>355</v>
       </c>
       <c r="Q11" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>413</v>
+      </c>
+      <c r="T11" t="s">
+        <v>443</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>133</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12" t="s">
         <v>39</v>
       </c>
       <c r="E12" t="s">
         <v>94</v>
       </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
       <c r="G12" t="s">
         <v>161</v>
       </c>
       <c r="H12" t="s">
         <v>182</v>
       </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="J12" t="s">
         <v>202</v>
       </c>
       <c r="K12" t="s">
         <v>228</v>
       </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
       <c r="M12" t="s">
         <v>252</v>
       </c>
       <c r="N12" t="s">
         <v>298</v>
       </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
       <c r="P12" t="s">
         <v>356</v>
       </c>
       <c r="Q12" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>414</v>
+      </c>
+      <c r="T12" t="s">
+        <v>444</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>134</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13" t="s">
         <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>95</v>
       </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
       <c r="G13" t="s">
         <v>162</v>
       </c>
       <c r="H13" t="s">
         <v>183</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="J13" t="s">
         <v>203</v>
       </c>
       <c r="K13" t="s">
         <v>229</v>
       </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
       <c r="M13" t="s">
         <v>253</v>
       </c>
       <c r="N13" t="s">
         <v>298</v>
       </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
       <c r="P13" t="s">
         <v>357</v>
       </c>
       <c r="Q13" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>415</v>
+      </c>
+      <c r="T13" t="s">
+        <v>445</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14" t="s">
         <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>96</v>
       </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
       <c r="G14" t="s">
         <v>163</v>
       </c>
       <c r="H14" t="s">
         <v>184</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
       <c r="J14" t="s">
         <v>204</v>
       </c>
       <c r="K14" t="s">
         <v>230</v>
       </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
       <c r="M14" t="s">
         <v>254</v>
       </c>
       <c r="N14" t="s">
         <v>299</v>
       </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
       <c r="P14" t="s">
         <v>358</v>
       </c>
       <c r="Q14" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>416</v>
+      </c>
+      <c r="T14" t="s">
+        <v>446</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>135</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15" t="s">
         <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>97</v>
       </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
       <c r="G15" t="s">
         <v>164</v>
       </c>
       <c r="H15" t="s">
         <v>185</v>
       </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
       <c r="J15" t="s">
         <v>205</v>
       </c>
       <c r="K15" t="s">
         <v>231</v>
       </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
       <c r="M15" t="s">
         <v>255</v>
       </c>
       <c r="N15" t="s">
         <v>300</v>
       </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
       <c r="P15" t="s">
         <v>359</v>
       </c>
       <c r="Q15" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>417</v>
+      </c>
+      <c r="T15" t="s">
+        <v>447</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>136</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16" t="s">
         <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>98</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
       <c r="G16" t="s">
         <v>165</v>
       </c>
       <c r="H16" t="s">
         <v>186</v>
       </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="J16" t="s">
         <v>206</v>
       </c>
       <c r="K16" t="s">
         <v>232</v>
       </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
       <c r="M16" t="s">
         <v>256</v>
       </c>
       <c r="N16" t="s">
         <v>301</v>
       </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
       <c r="P16" t="s">
         <v>360</v>
       </c>
       <c r="Q16" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>418</v>
+      </c>
+      <c r="T16" t="s">
+        <v>448</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>136</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="D17" t="s">
         <v>49</v>
       </c>
       <c r="E17" t="s">
         <v>99</v>
       </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
       <c r="G17" t="s">
         <v>166</v>
       </c>
       <c r="H17" t="s">
         <v>187</v>
       </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
       <c r="J17" t="s">
         <v>207</v>
       </c>
       <c r="K17" t="s">
         <v>233</v>
       </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
       <c r="M17" t="s">
         <v>257</v>
       </c>
       <c r="N17" t="s">
         <v>302</v>
       </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
       <c r="P17" t="s">
         <v>361</v>
       </c>
       <c r="Q17" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>419</v>
+      </c>
+      <c r="T17" t="s">
+        <v>449</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>137</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18" t="s">
         <v>50</v>
       </c>
       <c r="E18" t="s">
         <v>100</v>
       </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
       <c r="G18" t="s">
         <v>167</v>
       </c>
       <c r="H18" t="s">
         <v>188</v>
       </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
       <c r="J18" t="s">
         <v>208</v>
       </c>
       <c r="K18" t="s">
         <v>234</v>
       </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
       <c r="M18" t="s">
         <v>258</v>
       </c>
       <c r="N18" t="s">
         <v>303</v>
       </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
       <c r="P18" t="s">
         <v>362</v>
       </c>
       <c r="Q18" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>420</v>
+      </c>
+      <c r="T18" t="s">
+        <v>450</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>138</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19" t="s">
         <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>101</v>
       </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
       <c r="G19" t="s">
         <v>168</v>
       </c>
       <c r="H19" t="s">
         <v>188</v>
       </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
       <c r="J19" t="s">
         <v>209</v>
       </c>
       <c r="K19" t="s">
         <v>235</v>
       </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
       <c r="M19" t="s">
         <v>259</v>
       </c>
       <c r="N19" t="s">
         <v>304</v>
       </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
       <c r="P19" t="s">
         <v>363</v>
       </c>
       <c r="Q19" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>421</v>
+      </c>
+      <c r="T19" t="s">
+        <v>451</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>139</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20" t="s">
         <v>52</v>
       </c>
       <c r="E20" t="s">
         <v>102</v>
       </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
       <c r="G20" t="s">
         <v>169</v>
       </c>
       <c r="H20" t="s">
         <v>189</v>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
       <c r="J20" t="s">
         <v>210</v>
       </c>
       <c r="K20" t="s">
         <v>236</v>
       </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
       <c r="M20" t="s">
         <v>260</v>
       </c>
       <c r="N20" t="s">
         <v>305</v>
       </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
       <c r="P20" t="s">
         <v>364</v>
       </c>
       <c r="Q20" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20" t="s">
+        <v>422</v>
+      </c>
+      <c r="T20" t="s">
+        <v>452</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>140</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
       <c r="D21" t="s">
         <v>53</v>
       </c>
       <c r="E21" t="s">
         <v>103</v>
       </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
       <c r="G21" t="s">
         <v>170</v>
       </c>
       <c r="H21" t="s">
         <v>190</v>
       </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
       <c r="J21" t="s">
         <v>211</v>
       </c>
       <c r="K21" t="s">
         <v>237</v>
       </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
       <c r="M21" t="s">
         <v>261</v>
       </c>
       <c r="N21" t="s">
         <v>306</v>
       </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
       <c r="P21" t="s">
         <v>365</v>
       </c>
       <c r="Q21" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21" t="s">
+        <v>423</v>
+      </c>
+      <c r="T21" t="s">
+        <v>453</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>141</v>
       </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
       <c r="D22" t="s">
         <v>54</v>
       </c>
       <c r="E22" t="s">
         <v>104</v>
       </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
       <c r="G22" t="s">
         <v>171</v>
       </c>
       <c r="H22" t="s">
         <v>191</v>
       </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
       <c r="J22" t="s">
         <v>212</v>
       </c>
       <c r="K22" t="s">
         <v>238</v>
       </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
       <c r="M22" t="s">
         <v>262</v>
       </c>
       <c r="N22" t="s">
         <v>307</v>
       </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
       <c r="P22" t="s">
         <v>366</v>
       </c>
       <c r="Q22" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22" t="s">
+        <v>424</v>
+      </c>
+      <c r="T22" t="s">
+        <v>454</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>142</v>
       </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23" t="s">
         <v>55</v>
       </c>
       <c r="E23" t="s">
         <v>105</v>
       </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
       <c r="G23" t="s">
         <v>172</v>
       </c>
       <c r="H23" t="s">
         <v>192</v>
       </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
       <c r="J23" t="s">
         <v>213</v>
       </c>
       <c r="K23" t="s">
         <v>239</v>
       </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
       <c r="M23" t="s">
         <v>263</v>
       </c>
       <c r="N23" t="s">
         <v>308</v>
       </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
       <c r="P23" t="s">
         <v>367</v>
       </c>
       <c r="Q23" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23" t="s">
+        <v>425</v>
+      </c>
+      <c r="T23" t="s">
+        <v>455</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>142</v>
       </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24" t="s">
         <v>56</v>
       </c>
       <c r="E24" t="s">
         <v>106</v>
       </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
       <c r="J24" t="s">
         <v>214</v>
       </c>
       <c r="K24" t="s">
         <v>240</v>
       </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
       <c r="M24" t="s">
         <v>264</v>
       </c>
       <c r="N24" t="s">
         <v>309</v>
       </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
       <c r="P24" t="s">
         <v>368</v>
       </c>
       <c r="Q24" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>426</v>
+      </c>
+      <c r="T24" t="s">
+        <v>456</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>143</v>
       </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25" t="s">
         <v>57</v>
       </c>
       <c r="E25" t="s">
         <v>107</v>
       </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
       <c r="J25" t="s">
         <v>215</v>
       </c>
       <c r="K25" t="s">
         <v>241</v>
       </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
       <c r="M25" t="s">
         <v>265</v>
       </c>
       <c r="N25" t="s">
         <v>295</v>
       </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
       <c r="P25" t="s">
         <v>369</v>
       </c>
       <c r="Q25" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25" t="s">
+        <v>427</v>
+      </c>
+      <c r="T25" t="s">
+        <v>457</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>144</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
       <c r="D26" t="s">
         <v>58</v>
       </c>
       <c r="E26" t="s">
         <v>108</v>
       </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
       <c r="J26" t="s">
         <v>216</v>
       </c>
       <c r="K26" t="s">
         <v>242</v>
       </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
       <c r="M26" t="s">
         <v>266</v>
       </c>
       <c r="N26" t="s">
         <v>310</v>
       </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
       <c r="P26" t="s">
         <v>370</v>
       </c>
       <c r="Q26" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>428</v>
+      </c>
+      <c r="T26" t="s">
+        <v>458</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>145</v>
       </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
       <c r="D27" t="s">
         <v>59</v>
       </c>
       <c r="E27" t="s">
         <v>109</v>
       </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
       <c r="J27" t="s">
         <v>217</v>
       </c>
       <c r="K27" t="s">
         <v>243</v>
       </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
       <c r="M27" t="s">
         <v>267</v>
       </c>
       <c r="N27" t="s">
         <v>311</v>
       </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
       <c r="P27" t="s">
         <v>371</v>
       </c>
       <c r="Q27" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27" t="s">
+        <v>464</v>
+      </c>
+      <c r="T27" t="s">
+        <v>459</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
       <c r="B28" t="s">
         <v>146</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
       <c r="D28" t="s">
         <v>60</v>
       </c>
       <c r="E28" t="s">
         <v>110</v>
       </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
       <c r="J28" t="s">
         <v>218</v>
       </c>
       <c r="K28" t="s">
         <v>232</v>
       </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
       <c r="M28" t="s">
         <v>268</v>
       </c>
       <c r="N28" t="s">
         <v>312</v>
       </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
       <c r="P28" t="s">
         <v>372</v>
       </c>
       <c r="Q28" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>429</v>
+      </c>
+      <c r="T28" t="s">
+        <v>460</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>73</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
       <c r="D29" t="s">
         <v>61</v>
       </c>
       <c r="E29" t="s">
         <v>111</v>
       </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
       <c r="M29" t="s">
         <v>269</v>
       </c>
       <c r="N29" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>430</v>
+      </c>
+      <c r="T29" t="s">
+        <v>461</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
       <c r="B30" t="s">
         <v>147</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
       <c r="D30" t="s">
         <v>62</v>
       </c>
       <c r="E30" t="s">
         <v>112</v>
       </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
       <c r="M30" t="s">
         <v>270</v>
       </c>
       <c r="N30" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="S30" t="s">
+        <v>431</v>
+      </c>
+      <c r="T30" t="s">
+        <v>462</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
       <c r="B31" t="s">
         <v>148</v>
       </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
       <c r="D31" t="s">
         <v>40</v>
       </c>
       <c r="E31" t="s">
         <v>113</v>
       </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
       <c r="M31" t="s">
         <v>271</v>
       </c>
       <c r="N31" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>432</v>
+      </c>
+      <c r="T31" t="s">
+        <v>463</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
       <c r="B32" t="s">
         <v>149</v>
       </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
       <c r="D32" t="s">
         <v>41</v>
       </c>
       <c r="E32" t="s">
         <v>114</v>
       </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
       <c r="M32" t="s">
         <v>272</v>
       </c>
       <c r="N32" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>433</v>
+      </c>
+      <c r="T32" t="s">
+        <v>465</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
       <c r="B33" t="s">
         <v>150</v>
       </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
       <c r="D33" t="s">
         <v>42</v>
       </c>
       <c r="E33" t="s">
         <v>115</v>
       </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
       <c r="M33" t="s">
         <v>273</v>
       </c>
       <c r="N33" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="S33" t="s">
+        <v>434</v>
+      </c>
+      <c r="T33" t="s">
+        <v>466</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
       <c r="B34" t="s">
         <v>151</v>
       </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
       <c r="D34" t="s">
         <v>63</v>
       </c>
       <c r="E34" t="s">
         <v>116</v>
       </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
       <c r="M34" t="s">
         <v>274</v>
       </c>
       <c r="N34" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="S34" t="s">
+        <v>435</v>
+      </c>
+      <c r="T34" t="s">
+        <v>467</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>64</v>
       </c>
       <c r="E35" t="s">
         <v>117</v>
       </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
       <c r="M35" t="s">
         <v>275</v>
       </c>
       <c r="N35" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>65</v>
       </c>
       <c r="E36" t="s">
         <v>118</v>
       </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
       <c r="M36" t="s">
         <v>276</v>
       </c>
       <c r="N36" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>66</v>
       </c>
       <c r="E37" t="s">
         <v>119</v>
       </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
       <c r="M37" t="s">
         <v>277</v>
       </c>
       <c r="N37" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>67</v>
       </c>
       <c r="E38" t="s">
         <v>120</v>
       </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
       <c r="M38" t="s">
         <v>278</v>
       </c>
       <c r="N38" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>68</v>
       </c>
       <c r="E39" t="s">
         <v>121</v>
       </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
       <c r="M39" t="s">
         <v>279</v>
       </c>
       <c r="N39" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>69</v>
       </c>
       <c r="E40" t="s">
         <v>122</v>
       </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
       <c r="M40" t="s">
         <v>280</v>
       </c>
       <c r="N40" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>70</v>
       </c>
       <c r="E41" t="s">
         <v>123</v>
       </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
       <c r="M41" t="s">
         <v>281</v>
       </c>
       <c r="N41" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M42" t="s">
         <v>282</v>
       </c>
       <c r="N42" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M43" t="s">
         <v>283</v>
       </c>
       <c r="N43" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M44" t="s">
         <v>284</v>
       </c>
       <c r="N44" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M45" t="s">
         <v>285</v>
       </c>
       <c r="N45" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M46" t="s">
         <v>286</v>
       </c>
       <c r="N46" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M47" t="s">
         <v>287</v>
       </c>
       <c r="N47" t="s">
         <v>331</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2898,7 +3978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96243044-DAFC-4DB6-9967-18D55104159C}">
   <dimension ref="A2:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>

--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FC91D6-95BA-45D2-B876-6D4ECE97FE0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DB0C6F-1B1A-4AE5-9C5E-25B5AF2C92F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="467">
   <si>
     <t>course_code</t>
   </si>
@@ -1046,9 +1046,6 @@
   </si>
   <si>
     <t>One couse to be approved</t>
-  </si>
-  <si>
-    <t>FLEX 0000</t>
   </si>
   <si>
     <t>math-cs SCB</t>
@@ -1798,7 +1795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF0174-35EF-4838-880B-C4F8D4E4CC9D}">
   <dimension ref="A2:U47"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -1933,19 +1930,19 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="T3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1998,19 +1995,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -2063,19 +2060,19 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -2128,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -2193,19 +2190,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="T7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2258,19 +2255,19 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="T8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2323,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="T9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2388,19 +2385,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2453,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -2518,19 +2515,19 @@
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -2583,19 +2580,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -2648,19 +2645,19 @@
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -2713,19 +2710,19 @@
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -2778,19 +2775,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -2843,19 +2840,19 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2908,19 +2905,19 @@
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="T18" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2973,19 +2970,19 @@
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -3038,19 +3035,19 @@
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -3103,19 +3100,19 @@
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -3168,19 +3165,19 @@
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -3233,19 +3230,19 @@
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -3289,19 +3286,19 @@
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q24" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -3345,19 +3342,19 @@
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="T25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -3401,19 +3398,19 @@
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="T26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -3457,19 +3454,19 @@
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="T27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -3513,19 +3510,19 @@
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Q28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="T28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -3560,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="T29" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3598,10 +3595,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="T30" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3636,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -3674,10 +3671,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="T32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3712,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="T33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3750,10 +3747,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="T34" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3978,8 +3975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96243044-DAFC-4DB6-9967-18D55104159C}">
   <dimension ref="A2:AD56"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3996,22 +3993,22 @@
   <sheetData>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K2" t="s">
         <v>332</v>
       </c>
       <c r="V2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -4052,28 +4049,28 @@
         <v>73</v>
       </c>
       <c r="W3" t="s">
+        <v>339</v>
+      </c>
+      <c r="X3" t="s">
         <v>340</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>341</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>342</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>343</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>344</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AD3" t="s">
         <v>345</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>404</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -4170,7 +4167,7 @@
         <v>158</v>
       </c>
       <c r="P5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V5" t="s">
         <v>8</v>
@@ -4194,10 +4191,10 @@
         <v>259</v>
       </c>
       <c r="AC5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AD5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -4247,7 +4244,7 @@
         <v>260</v>
       </c>
       <c r="AC6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -4270,7 +4267,7 @@
         <v>254</v>
       </c>
       <c r="X7" t="s">
-        <v>338</v>
+        <v>399</v>
       </c>
       <c r="AA7" t="s">
         <v>11</v>
@@ -4279,7 +4276,7 @@
         <v>261</v>
       </c>
       <c r="AC7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -4494,7 +4491,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>

--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DB0C6F-1B1A-4AE5-9C5E-25B5AF2C92F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DE922F-3827-4A31-840C-0935DD72D4EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="468">
   <si>
     <t>course_code</t>
   </si>
@@ -415,18 +415,9 @@
     <t>Analytic Geometry and Calculus</t>
   </si>
   <si>
-    <t xml:space="preserve"> Calculus with Applications to Social Science</t>
-  </si>
-  <si>
     <t>Introductory Calculus, Part I</t>
   </si>
   <si>
-    <t xml:space="preserve"> Introductory Calculus, Part II</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Intermediate Calculus</t>
-  </si>
-  <si>
     <t>Advanced Placement Calculus (Physics/Engineering)</t>
   </si>
   <si>
@@ -1237,9 +1228,6 @@
     <t>APMA 0330 and APMA 0340 will sometimes be accepted in place of APMA 0350 and APMA 0360</t>
   </si>
   <si>
-    <t>Capstone</t>
-  </si>
-  <si>
     <t>Two 1000-level and one intermediate CS courses must satisfy a CS pathway. Check concentrations for more info.</t>
   </si>
   <si>
@@ -1433,6 +1421,21 @@
   </si>
   <si>
     <t>Rhythm and Silence: A Creative Writing Workshop</t>
+  </si>
+  <si>
+    <t>Calculus with Applications to Social Science</t>
+  </si>
+  <si>
+    <t>Introductory Calculus, Part II</t>
+  </si>
+  <si>
+    <t>Intermediate Calculus</t>
+  </si>
+  <si>
+    <t>FlexCourse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capstone </t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1799,7 @@
   <dimension ref="A2:U47"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,46 +1906,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="Q3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="T3" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1968,46 +1971,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Q4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="T4" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -2018,7 +2021,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>463</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2033,46 +2036,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="N5" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="Q5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="T5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -2083,7 +2086,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2098,46 +2101,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="T6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -2148,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>464</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2163,46 +2166,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="N7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="T7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2228,46 +2231,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="Q8" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="T8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2278,7 +2281,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>465</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2293,46 +2296,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="Q9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="T9" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2343,7 +2346,7 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2358,46 +2361,46 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N10" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="Q10" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="T10" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2408,7 +2411,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2423,46 +2426,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H11" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="N11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="Q11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="T11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -2473,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2488,46 +2491,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q12" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T12" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -2538,7 +2541,7 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2553,46 +2556,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="N13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="Q13" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="T13" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -2618,46 +2621,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="N14" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="T14" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -2668,7 +2671,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2683,46 +2686,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="Q15" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T15" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -2733,7 +2736,7 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2748,46 +2751,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="N16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q16" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="T16" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -2798,7 +2801,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2813,46 +2816,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="Q17" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="T17" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2863,7 +2866,7 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2878,46 +2881,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q18" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="T18" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2928,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2943,46 +2946,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q19" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="T19" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2993,7 +2996,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3008,46 +3011,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N20" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="Q20" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="T20" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -3058,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3073,46 +3076,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H21" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="N21" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q21" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="T21" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -3123,7 +3126,7 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3138,46 +3141,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N22" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="Q22" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="T22" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -3188,7 +3191,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3203,46 +3206,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N23" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q23" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="T23" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -3253,7 +3256,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3268,37 +3271,37 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="N24" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q24" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="T24" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -3309,7 +3312,7 @@
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3324,37 +3327,37 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N25" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q25" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="T25" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -3365,7 +3368,7 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3380,37 +3383,37 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N26" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q26" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="T26" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -3421,7 +3424,7 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3436,37 +3439,37 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N27" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q27" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="T27" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -3477,7 +3480,7 @@
         <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3492,37 +3495,37 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N28" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Q28" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="T28" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -3548,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N29" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="T29" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3571,7 +3574,7 @@
         <v>19</v>
       </c>
       <c r="B30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3586,19 +3589,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N30" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="T30" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3609,7 +3612,7 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3624,19 +3627,19 @@
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="N31" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="T31" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -3647,7 +3650,7 @@
         <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3662,19 +3665,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N32" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="T32" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3685,7 +3688,7 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3700,19 +3703,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N33" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="T33" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3723,7 +3726,7 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3738,19 +3741,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N34" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="T34" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3767,10 +3770,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="N35" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -3790,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N36" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -3810,10 +3813,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N37" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -3830,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N38" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -3850,10 +3853,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N39" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -3870,10 +3873,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N40" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -3890,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N41" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -3901,10 +3904,10 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M42" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N42" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -3912,10 +3915,10 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M43" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="N43" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -3923,10 +3926,10 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M44" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N44" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -3934,10 +3937,10 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M45" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N45" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -3945,10 +3948,10 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M46" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="N46" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -3956,10 +3959,10 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M47" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N47" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -3975,8 +3978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96243044-DAFC-4DB6-9967-18D55104159C}">
   <dimension ref="A2:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3993,22 +3996,22 @@
   <sheetData>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="V2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="W2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -4031,46 +4034,46 @@
         <v>72</v>
       </c>
       <c r="L3" t="s">
+        <v>330</v>
+      </c>
+      <c r="M3" t="s">
+        <v>331</v>
+      </c>
+      <c r="N3" t="s">
+        <v>332</v>
+      </c>
+      <c r="O3" t="s">
         <v>333</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>334</v>
-      </c>
-      <c r="N3" t="s">
-        <v>335</v>
-      </c>
-      <c r="O3" t="s">
-        <v>336</v>
-      </c>
-      <c r="P3" t="s">
-        <v>337</v>
       </c>
       <c r="V3" t="s">
         <v>73</v>
       </c>
       <c r="W3" t="s">
+        <v>336</v>
+      </c>
+      <c r="X3" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z3" t="s">
         <v>339</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>340</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>341</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
+        <v>399</v>
+      </c>
+      <c r="AD3" t="s">
         <v>342</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>343</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>403</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -4155,46 +4158,46 @@
         <v>6</v>
       </c>
       <c r="L5" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" t="s">
+        <v>153</v>
+      </c>
+      <c r="N5" t="s">
+        <v>149</v>
+      </c>
+      <c r="O5" t="s">
         <v>155</v>
       </c>
-      <c r="M5" t="s">
-        <v>156</v>
-      </c>
-      <c r="N5" t="s">
-        <v>152</v>
-      </c>
-      <c r="O5" t="s">
-        <v>158</v>
-      </c>
       <c r="P5" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="V5" t="s">
         <v>8</v>
       </c>
       <c r="W5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="X5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Y5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Z5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AA5" t="s">
         <v>9</v>
       </c>
       <c r="AB5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AC5" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="AD5" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -4214,37 +4217,37 @@
         <v>7</v>
       </c>
       <c r="L6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="W6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="X6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Y6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Z6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="AA6" t="s">
         <v>10</v>
       </c>
       <c r="AB6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AC6" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -4258,25 +4261,25 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="X7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AA7" t="s">
         <v>11</v>
       </c>
       <c r="AB7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AC7" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -4284,16 +4287,16 @@
         <v>12</v>
       </c>
       <c r="N8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AA8" t="s">
         <v>12</v>
       </c>
       <c r="AB8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -4301,13 +4304,13 @@
         <v>13</v>
       </c>
       <c r="O9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AA9" t="s">
         <v>13</v>
       </c>
       <c r="AB9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -4315,13 +4318,13 @@
         <v>14</v>
       </c>
       <c r="O10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AA10" t="s">
         <v>14</v>
       </c>
       <c r="AB10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -4329,13 +4332,13 @@
         <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AA11" t="s">
         <v>2</v>
       </c>
       <c r="AB11" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -4343,13 +4346,13 @@
         <v>15</v>
       </c>
       <c r="O12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AA12" t="s">
         <v>15</v>
       </c>
       <c r="AB12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -4357,13 +4360,13 @@
         <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AA13" t="s">
         <v>17</v>
       </c>
       <c r="AB13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -4371,13 +4374,13 @@
         <v>16</v>
       </c>
       <c r="O14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AA14" t="s">
         <v>16</v>
       </c>
       <c r="AB14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -4385,13 +4388,13 @@
         <v>18</v>
       </c>
       <c r="O15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AA15" t="s">
         <v>18</v>
       </c>
       <c r="AB15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -4399,13 +4402,13 @@
         <v>19</v>
       </c>
       <c r="O16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AA16" t="s">
         <v>19</v>
       </c>
       <c r="AB16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -4413,13 +4416,13 @@
         <v>20</v>
       </c>
       <c r="O17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AA17" t="s">
         <v>20</v>
       </c>
       <c r="AB17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -4427,13 +4430,13 @@
         <v>21</v>
       </c>
       <c r="O18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AA18" t="s">
         <v>21</v>
       </c>
       <c r="AB18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -4441,13 +4444,13 @@
         <v>22</v>
       </c>
       <c r="O19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AA19" t="s">
         <v>22</v>
       </c>
       <c r="AB19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -4458,7 +4461,7 @@
         <v>23</v>
       </c>
       <c r="AB20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
@@ -4466,38 +4469,38 @@
         <v>31</v>
       </c>
       <c r="AB21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB22" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB24" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB25" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
       </c>
       <c r="AB26" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -4523,7 +4526,7 @@
         <v>81</v>
       </c>
       <c r="AB27" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -4549,7 +4552,7 @@
         <v>5</v>
       </c>
       <c r="AB28" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
@@ -4575,7 +4578,7 @@
         <v>43</v>
       </c>
       <c r="AB29" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
@@ -4592,7 +4595,7 @@
         <v>44</v>
       </c>
       <c r="AB30" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
@@ -4603,7 +4606,7 @@
         <v>45</v>
       </c>
       <c r="AB31" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
@@ -4611,7 +4614,7 @@
         <v>46</v>
       </c>
       <c r="AB32" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="7:28" x14ac:dyDescent="0.25">
@@ -4619,7 +4622,7 @@
         <v>47</v>
       </c>
       <c r="AB33" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="7:28" x14ac:dyDescent="0.25">
@@ -4627,7 +4630,7 @@
         <v>48</v>
       </c>
       <c r="AB34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="7:28" x14ac:dyDescent="0.25">
@@ -4635,7 +4638,7 @@
         <v>49</v>
       </c>
       <c r="AB35" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="7:28" x14ac:dyDescent="0.25">

--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DE922F-3827-4A31-840C-0935DD72D4EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3123C0F9-CC37-4282-BCA2-4D03F024355A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="467">
   <si>
     <t>course_code</t>
   </si>
@@ -1220,9 +1220,6 @@
   </si>
   <si>
     <t>If ECON 0110 is exempted, you must take an additional 1000-level Econ class</t>
-  </si>
-  <si>
-    <t>Flex Course</t>
   </si>
   <si>
     <t>APMA 0330 and APMA 0340 will sometimes be accepted in place of APMA 0350 and APMA 0360</t>
@@ -1942,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -2007,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="T4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -2021,7 +2018,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2072,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="T5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -2137,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="T6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -2151,7 +2148,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2202,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2267,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="T8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2281,7 +2278,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2332,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2397,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2462,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -2527,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="T12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -2592,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="T13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -2657,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="T14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -2722,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="T15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -2787,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -2852,10 +2849,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2917,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2982,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="T19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -3047,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -3112,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T21" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -3177,10 +3174,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -3242,10 +3239,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="T23" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -3298,10 +3295,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -3354,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -3410,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -3466,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -3522,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -3560,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T29" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3598,10 +3595,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3636,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="T31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -3674,10 +3671,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="T32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3712,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="T33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3750,10 +3747,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="T34" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3978,8 +3975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96243044-DAFC-4DB6-9967-18D55104159C}">
   <dimension ref="A2:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4002,13 +3999,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K2" t="s">
         <v>329</v>
       </c>
       <c r="V2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="W2" t="s">
         <v>335</v>
@@ -4070,7 +4067,7 @@
         <v>341</v>
       </c>
       <c r="AC3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AD3" t="s">
         <v>342</v>
@@ -4170,7 +4167,7 @@
         <v>155</v>
       </c>
       <c r="P5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="V5" t="s">
         <v>8</v>
@@ -4194,10 +4191,10 @@
         <v>256</v>
       </c>
       <c r="AC5" t="s">
+        <v>465</v>
+      </c>
+      <c r="AD5" t="s">
         <v>466</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -4247,7 +4244,7 @@
         <v>257</v>
       </c>
       <c r="AC6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -4270,7 +4267,7 @@
         <v>251</v>
       </c>
       <c r="X7" t="s">
-        <v>396</v>
+        <v>465</v>
       </c>
       <c r="AA7" t="s">
         <v>11</v>
@@ -4279,7 +4276,7 @@
         <v>258</v>
       </c>
       <c r="AC7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">

--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3123C0F9-CC37-4282-BCA2-4D03F024355A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2AE96B-B664-4B2D-9643-62A56885AD53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>course_code</t>
   </si>
   <si>
-    <t>math AB</t>
-  </si>
-  <si>
     <t>MATH 1140</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>MATH 0760</t>
   </si>
   <si>
-    <t>econ AB</t>
-  </si>
-  <si>
     <t>MATH 0170</t>
   </si>
   <si>
@@ -1021,9 +1015,6 @@
     <t>csciStartup</t>
   </si>
   <si>
-    <t>apma AB</t>
-  </si>
-  <si>
     <t>ODEs</t>
   </si>
   <si>
@@ -1039,9 +1030,6 @@
     <t>One couse to be approved</t>
   </si>
   <si>
-    <t>math-cs SCB</t>
-  </si>
-  <si>
     <t>Semester 1 Intro</t>
   </si>
   <si>
@@ -1433,6 +1421,18 @@
   </si>
   <si>
     <t xml:space="preserve">Capstone </t>
+  </si>
+  <si>
+    <t>Apma AB</t>
+  </si>
+  <si>
+    <t>Math-CS ScB</t>
+  </si>
+  <si>
+    <t>Math AB</t>
+  </si>
+  <si>
+    <t>Econ AB</t>
   </si>
 </sst>
 </file>
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1885,64 +1885,64 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="T3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1950,64 +1950,64 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="N4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="Q4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="T4" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -2015,64 +2015,64 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="N5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="T5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -2080,64 +2080,64 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="T6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -2145,64 +2145,64 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="T7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2210,64 +2210,64 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Q8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="T8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2275,64 +2275,64 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="N9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q9" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="T9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -2340,64 +2340,64 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Q10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="T10" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -2405,64 +2405,64 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="N11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="T11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -2470,64 +2470,64 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q12" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="T12" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -2535,64 +2535,64 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="N13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q13" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="T13" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -2600,64 +2600,64 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q14" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="T14" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -2665,64 +2665,64 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q15" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="T15" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -2730,64 +2730,64 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N16" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q16" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="T16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -2795,64 +2795,64 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="N17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="T17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2860,64 +2860,64 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Q18" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="R18">
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="T18" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2925,64 +2925,64 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q19" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="R19">
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="T19" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2990,64 +2990,64 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="N20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="R20">
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="T20" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -3055,64 +3055,64 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="N21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Q21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="T21" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -3120,64 +3120,64 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="N22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q22" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="T22" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -3185,64 +3185,64 @@
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Q23" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="T23" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -3250,55 +3250,55 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K24" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q24" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="T24" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -3306,55 +3306,55 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N25" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q25" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="T25" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -3362,55 +3362,55 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q26" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="T26" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -3418,55 +3418,55 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="N27" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="Q27" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="T27" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -3474,55 +3474,55 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q28" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="T28" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -3530,37 +3530,37 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="M29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="T29" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3568,37 +3568,37 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="M30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N30" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O30">
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="T30" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3606,37 +3606,37 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="M31" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N31" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="T31" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -3644,37 +3644,37 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="M32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="T32" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -3682,37 +3682,37 @@
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="M33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="T33" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -3720,37 +3720,37 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="M34" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="T34" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -3758,19 +3758,19 @@
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="M35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N35" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O35">
         <v>0</v>
@@ -3781,19 +3781,19 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="M36" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -3801,19 +3801,19 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="M37" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="N37" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -3821,19 +3821,19 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="M38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -3841,19 +3841,19 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="M39" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N39" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="O39">
         <v>0</v>
@@ -3861,19 +3861,19 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="M40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N40" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -3881,19 +3881,19 @@
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="M41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N41" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -3901,10 +3901,10 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="N42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -3912,10 +3912,10 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M43" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N43" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -3923,10 +3923,10 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N44" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -3934,10 +3934,10 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M45" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="N45" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -3945,10 +3945,10 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N46" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -3956,10 +3956,10 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="M47" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N47" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -3975,8 +3975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96243044-DAFC-4DB6-9967-18D55104159C}">
   <dimension ref="A2:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3993,84 +3993,84 @@
   <sheetData>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>465</v>
       </c>
       <c r="J2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K2" t="s">
-        <v>329</v>
+        <v>463</v>
       </c>
       <c r="V2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="W2" t="s">
-        <v>335</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
         <v>71</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>72</v>
       </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>74</v>
-      </c>
       <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" t="s">
+        <v>327</v>
+      </c>
+      <c r="M3" t="s">
+        <v>328</v>
+      </c>
+      <c r="N3" t="s">
+        <v>329</v>
+      </c>
+      <c r="O3" t="s">
+        <v>330</v>
+      </c>
+      <c r="P3" t="s">
+        <v>331</v>
+      </c>
+      <c r="V3" t="s">
         <v>71</v>
       </c>
-      <c r="K3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" t="s">
-        <v>330</v>
-      </c>
-      <c r="M3" t="s">
-        <v>331</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="W3" t="s">
         <v>332</v>
       </c>
-      <c r="O3" t="s">
+      <c r="X3" t="s">
         <v>333</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Y3" t="s">
         <v>334</v>
       </c>
-      <c r="V3" t="s">
-        <v>73</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA3" t="s">
         <v>336</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AB3" t="s">
         <v>337</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AC3" t="s">
+        <v>394</v>
+      </c>
+      <c r="AD3" t="s">
         <v>338</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>340</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>341</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>398</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -4137,393 +4137,393 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" t="s">
+        <v>147</v>
+      </c>
+      <c r="O5" t="s">
         <v>153</v>
       </c>
-      <c r="N5" t="s">
-        <v>149</v>
-      </c>
-      <c r="O5" t="s">
-        <v>155</v>
-      </c>
       <c r="P5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="V5" t="s">
+        <v>7</v>
+      </c>
+      <c r="W5" t="s">
+        <v>245</v>
+      </c>
+      <c r="X5" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA5" t="s">
         <v>8</v>
       </c>
-      <c r="W5" t="s">
-        <v>247</v>
-      </c>
-      <c r="X5" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>9</v>
-      </c>
       <c r="AB5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AC5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AD5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="W6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="X6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y6" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z6" t="s">
         <v>254</v>
       </c>
-      <c r="Z6" t="s">
-        <v>256</v>
-      </c>
       <c r="AA6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AC6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="W7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="X7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AA7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AC7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AA8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AA9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AA10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AA11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AA12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AB13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AA14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AA15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AA16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AA17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AA18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AA19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="AB25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>466</v>
       </c>
       <c r="AB26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
         <v>75</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>76</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>77</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>78</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>79</v>
       </c>
-      <c r="F27" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" t="s">
-        <v>81</v>
-      </c>
       <c r="AB27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
@@ -4549,198 +4549,198 @@
         <v>5</v>
       </c>
       <c r="AB28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
         <v>37</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
         <v>39</v>
       </c>
-      <c r="E29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>41</v>
       </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
       <c r="AB29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s">
         <v>42</v>
       </c>
-      <c r="G30" t="s">
-        <v>44</v>
-      </c>
       <c r="AB30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AB31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AB33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AB35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2AE96B-B664-4B2D-9643-62A56885AD53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CA0CB2-B311-4184-9223-C898649C95DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="599">
   <si>
     <t>course_code</t>
   </si>
@@ -1433,6 +1433,402 @@
   </si>
   <si>
     <t>Econ AB</t>
+  </si>
+  <si>
+    <t>Behavioral Decision Sciences AB</t>
+  </si>
+  <si>
+    <t>Making Decisions</t>
+  </si>
+  <si>
+    <t>CLPS 0220</t>
+  </si>
+  <si>
+    <t>Choose One</t>
+  </si>
+  <si>
+    <t>CLPS 0400</t>
+  </si>
+  <si>
+    <t>CLPS 0200</t>
+  </si>
+  <si>
+    <t>CLPS 0700</t>
+  </si>
+  <si>
+    <t>Choose Two</t>
+  </si>
+  <si>
+    <t>CLPS 1470</t>
+  </si>
+  <si>
+    <t>CLPS 1495</t>
+  </si>
+  <si>
+    <t>CLPS 1730</t>
+  </si>
+  <si>
+    <t>CLPS 1760</t>
+  </si>
+  <si>
+    <t>One Introductory Course</t>
+  </si>
+  <si>
+    <t>Two Advanced Courses</t>
+  </si>
+  <si>
+    <t>ECON 1660</t>
+  </si>
+  <si>
+    <t>PHIL 0580</t>
+  </si>
+  <si>
+    <t>PHIL 1550</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>CLPS 0900</t>
+  </si>
+  <si>
+    <t>CLPS 1791</t>
+  </si>
+  <si>
+    <t>PHIL 0540</t>
+  </si>
+  <si>
+    <t>Three Electives</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>CLPS 0950</t>
+  </si>
+  <si>
+    <t>CLPS 1292</t>
+  </si>
+  <si>
+    <t>CLPS 1370</t>
+  </si>
+  <si>
+    <t>CLPS 1970</t>
+  </si>
+  <si>
+    <t>APMA 0200</t>
+  </si>
+  <si>
+    <t>APMA 2640</t>
+  </si>
+  <si>
+    <t>APMA 2821V</t>
+  </si>
+  <si>
+    <t>PHIL 0500</t>
+  </si>
+  <si>
+    <t>PHIL 1650</t>
+  </si>
+  <si>
+    <t>PHIL 1750</t>
+  </si>
+  <si>
+    <t>CSCI 1951A</t>
+  </si>
+  <si>
+    <t>POLS 1090</t>
+  </si>
+  <si>
+    <t>POLS 1150</t>
+  </si>
+  <si>
+    <t>POLS 1470</t>
+  </si>
+  <si>
+    <t>PHP 1740</t>
+  </si>
+  <si>
+    <t>Capstone</t>
+  </si>
+  <si>
+    <t>The Electives list suggested courses. Other custom courses can be taken and all must be approved by a concentration advisor</t>
+  </si>
+  <si>
+    <t>CLPS 0010</t>
+  </si>
+  <si>
+    <t>CLPS 0050A</t>
+  </si>
+  <si>
+    <t>CLPS 0100</t>
+  </si>
+  <si>
+    <t>CLPS 0120</t>
+  </si>
+  <si>
+    <t>CLPS 0300</t>
+  </si>
+  <si>
+    <t>CLPS 0500</t>
+  </si>
+  <si>
+    <t>CLPS 0540</t>
+  </si>
+  <si>
+    <t>CLPS 0550</t>
+  </si>
+  <si>
+    <t>CLPS 0610</t>
+  </si>
+  <si>
+    <t>CLPS 0611</t>
+  </si>
+  <si>
+    <t>CLPS 0701</t>
+  </si>
+  <si>
+    <t>CLPS 0800</t>
+  </si>
+  <si>
+    <t>CLPS 1181A</t>
+  </si>
+  <si>
+    <t>CLPS 1191</t>
+  </si>
+  <si>
+    <t>CLPS 1193</t>
+  </si>
+  <si>
+    <t>CLPS 1194</t>
+  </si>
+  <si>
+    <t>CLPS 1195</t>
+  </si>
+  <si>
+    <t>CLPS 1250</t>
+  </si>
+  <si>
+    <t>CLPS 1280B</t>
+  </si>
+  <si>
+    <t>CLPS 1310</t>
+  </si>
+  <si>
+    <t>CLPS 1331</t>
+  </si>
+  <si>
+    <t>CLPS 1342</t>
+  </si>
+  <si>
+    <t>CLPS 1478</t>
+  </si>
+  <si>
+    <t>CLPS 1480C</t>
+  </si>
+  <si>
+    <t>CLPS 1492</t>
+  </si>
+  <si>
+    <t>CLPS 1500</t>
+  </si>
+  <si>
+    <t>CLPS 1510</t>
+  </si>
+  <si>
+    <t>CLPS 1570</t>
+  </si>
+  <si>
+    <t>CLPS 1580C</t>
+  </si>
+  <si>
+    <t>CLPS 1590</t>
+  </si>
+  <si>
+    <t>CLPS 1610</t>
+  </si>
+  <si>
+    <t>CLPS 1620</t>
+  </si>
+  <si>
+    <t>CLPS 1660</t>
+  </si>
+  <si>
+    <t>CLPS 1700</t>
+  </si>
+  <si>
+    <t>CLPS 1720</t>
+  </si>
+  <si>
+    <t>CLPS 1770</t>
+  </si>
+  <si>
+    <t>CLPS 1782</t>
+  </si>
+  <si>
+    <t>CLPS 1790</t>
+  </si>
+  <si>
+    <t>CLPS 1890</t>
+  </si>
+  <si>
+    <t>CLPS 1900</t>
+  </si>
+  <si>
+    <t>CLPS 1960</t>
+  </si>
+  <si>
+    <t>Mind, Brain and Behavior: An Interdisciplinary Approach</t>
+  </si>
+  <si>
+    <t>Computing as Done in Brains and Computers</t>
+  </si>
+  <si>
+    <t>Learning and Conditioning</t>
+  </si>
+  <si>
+    <t>Introduction to Sleep</t>
+  </si>
+  <si>
+    <t>Human Cognition</t>
+  </si>
+  <si>
+    <t>Introduction to Linguistics</t>
+  </si>
+  <si>
+    <t>Cognitive Neuroscience</t>
+  </si>
+  <si>
+    <t>Perception and Mind</t>
+  </si>
+  <si>
+    <t>Simulating Reality: The (Curious) History and Science of Immersive Experiences</t>
+  </si>
+  <si>
+    <t>Science of Consciousness</t>
+  </si>
+  <si>
+    <t>Children's Thinking: The Nature of Cognitive Development</t>
+  </si>
+  <si>
+    <t>Children's Thinking</t>
+  </si>
+  <si>
+    <t>Social Psychology</t>
+  </si>
+  <si>
+    <t>Personality</t>
+  </si>
+  <si>
+    <t>Language and the Mind</t>
+  </si>
+  <si>
+    <t>Statistical Methods</t>
+  </si>
+  <si>
+    <t>Introduction to Programming</t>
+  </si>
+  <si>
+    <t>Canine Behavior (ONLINE)</t>
+  </si>
+  <si>
+    <t>Animal Behavior Laboratory</t>
+  </si>
+  <si>
+    <t>Laboratory in Genes and Behavior</t>
+  </si>
+  <si>
+    <t>Sleep and Chronobiology Research</t>
+  </si>
+  <si>
+    <t>Life Under Waer in the Anthropocene</t>
+  </si>
+  <si>
+    <t>Human Factors</t>
+  </si>
+  <si>
+    <t>Special Topics in Cognition: Collective Cognition</t>
+  </si>
+  <si>
+    <t>Phonology</t>
+  </si>
+  <si>
+    <t>Linguistic Variation and Universals</t>
+  </si>
+  <si>
+    <t>Compositional Semantics</t>
+  </si>
+  <si>
+    <t>Pragmatics</t>
+  </si>
+  <si>
+    <t>Translational Models of Neuropsychiatric Disorder</t>
+  </si>
+  <si>
+    <t>Cognitive Control Functions of the Prefrontal Cortex</t>
+  </si>
+  <si>
+    <t>Computational Cognitive Neuroscience</t>
+  </si>
+  <si>
+    <t>Affective Neuroscience</t>
+  </si>
+  <si>
+    <t>Perception and Action</t>
+  </si>
+  <si>
+    <t>Auditory Perception Laboratory</t>
+  </si>
+  <si>
+    <t>Perceptual Learning</t>
+  </si>
+  <si>
+    <t>Visualizing Information</t>
+  </si>
+  <si>
+    <t>Visualizing Vision</t>
+  </si>
+  <si>
+    <t>Cognitive Development</t>
+  </si>
+  <si>
+    <t>Developmental Cognitive Neuroscience</t>
+  </si>
+  <si>
+    <t>Learning Compositional Language</t>
+  </si>
+  <si>
+    <t>Abnormal Psychology</t>
+  </si>
+  <si>
+    <t>Human Resilience</t>
+  </si>
+  <si>
+    <t>Psychology in Business and Economics</t>
+  </si>
+  <si>
+    <t>The Moral Brain</t>
+  </si>
+  <si>
+    <t>Stigma and Prejudice</t>
+  </si>
+  <si>
+    <t>Me, Myself, and I: Exploring Senses of Self from a Multidisciplinary Perspective (COST 1082)</t>
+  </si>
+  <si>
+    <t>Personality and Clinical Assessment</t>
+  </si>
+  <si>
+    <t>Laboratory in Social Cognition</t>
+  </si>
+  <si>
+    <t>Laboratory in Psycholingustics</t>
+  </si>
+  <si>
+    <t>Research Methods And Design</t>
+  </si>
+  <si>
+    <t>Senior Seminar in Behavioral Decision Sciences</t>
   </si>
 </sst>
 </file>
@@ -1793,10 +2189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF0174-35EF-4838-880B-C4F8D4E4CC9D}">
-  <dimension ref="A2:U47"/>
+  <dimension ref="A2:X54"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showZeros="0" topLeftCell="O5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,9 +2212,11 @@
     <col min="17" max="17" width="13.5703125" customWidth="1"/>
     <col min="19" max="19" width="12.28515625" customWidth="1"/>
     <col min="20" max="20" width="15.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+    <col min="23" max="23" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1882,8 +2280,14 @@
       <c r="U2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1947,8 +2351,17 @@
       <c r="U3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>507</v>
+      </c>
+      <c r="W3" t="s">
+        <v>548</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2012,8 +2425,17 @@
       <c r="U4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>508</v>
+      </c>
+      <c r="W4" t="s">
+        <v>549</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2077,8 +2499,17 @@
       <c r="U5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>509</v>
+      </c>
+      <c r="W5" t="s">
+        <v>550</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2142,8 +2573,17 @@
       <c r="U6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>510</v>
+      </c>
+      <c r="W6" t="s">
+        <v>551</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2207,8 +2647,17 @@
       <c r="U7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>472</v>
+      </c>
+      <c r="W7" t="s">
+        <v>552</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2272,8 +2721,17 @@
       <c r="U8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>469</v>
+      </c>
+      <c r="W8" t="s">
+        <v>468</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2337,8 +2795,17 @@
       <c r="U9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>511</v>
+      </c>
+      <c r="W9" t="s">
+        <v>553</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2402,8 +2869,17 @@
       <c r="U10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V10" t="s">
+        <v>471</v>
+      </c>
+      <c r="W10" t="s">
+        <v>554</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2467,8 +2943,17 @@
       <c r="U11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V11" t="s">
+        <v>512</v>
+      </c>
+      <c r="W11" t="s">
+        <v>555</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2532,8 +3017,17 @@
       <c r="U12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V12" t="s">
+        <v>513</v>
+      </c>
+      <c r="W12" t="s">
+        <v>556</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2597,8 +3091,17 @@
       <c r="U13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
+        <v>514</v>
+      </c>
+      <c r="W13" t="s">
+        <v>557</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -2662,8 +3165,17 @@
       <c r="U14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>515</v>
+      </c>
+      <c r="W14" t="s">
+        <v>558</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2727,8 +3239,17 @@
       <c r="U15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" t="s">
+        <v>516</v>
+      </c>
+      <c r="W15" t="s">
+        <v>559</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -2792,8 +3313,17 @@
       <c r="U16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>473</v>
+      </c>
+      <c r="W16" t="s">
+        <v>560</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2857,8 +3387,17 @@
       <c r="U17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V17" t="s">
+        <v>517</v>
+      </c>
+      <c r="W17" t="s">
+        <v>561</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2922,8 +3461,17 @@
       <c r="U18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
+        <v>518</v>
+      </c>
+      <c r="W18" t="s">
+        <v>562</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2987,8 +3535,17 @@
       <c r="U19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19" t="s">
+        <v>485</v>
+      </c>
+      <c r="W19" t="s">
+        <v>563</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -3052,8 +3609,17 @@
       <c r="U20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" t="s">
+        <v>490</v>
+      </c>
+      <c r="W20" t="s">
+        <v>564</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -3117,8 +3683,17 @@
       <c r="U21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21" t="s">
+        <v>519</v>
+      </c>
+      <c r="W21" t="s">
+        <v>565</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3182,8 +3757,17 @@
       <c r="U22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" t="s">
+        <v>520</v>
+      </c>
+      <c r="W22" t="s">
+        <v>566</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3247,8 +3831,17 @@
       <c r="U23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23" t="s">
+        <v>521</v>
+      </c>
+      <c r="W23" t="s">
+        <v>567</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -3303,8 +3896,17 @@
       <c r="U24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24" t="s">
+        <v>522</v>
+      </c>
+      <c r="W24" t="s">
+        <v>568</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -3359,8 +3961,17 @@
       <c r="U25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25" t="s">
+        <v>523</v>
+      </c>
+      <c r="W25" t="s">
+        <v>569</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -3415,8 +4026,17 @@
       <c r="U26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" t="s">
+        <v>524</v>
+      </c>
+      <c r="W26" t="s">
+        <v>570</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -3471,8 +4091,17 @@
       <c r="U27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27" t="s">
+        <v>525</v>
+      </c>
+      <c r="W27" t="s">
+        <v>571</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -3527,8 +4156,17 @@
       <c r="U28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28" t="s">
+        <v>526</v>
+      </c>
+      <c r="W28" t="s">
+        <v>572</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -3565,8 +4203,17 @@
       <c r="U29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29" t="s">
+        <v>527</v>
+      </c>
+      <c r="W29" t="s">
+        <v>573</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -3603,8 +4250,17 @@
       <c r="U30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30" t="s">
+        <v>528</v>
+      </c>
+      <c r="W30" t="s">
+        <v>574</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -3641,8 +4297,17 @@
       <c r="U31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31" t="s">
+        <v>492</v>
+      </c>
+      <c r="W31" t="s">
+        <v>575</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -3679,8 +4344,17 @@
       <c r="U32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32" t="s">
+        <v>529</v>
+      </c>
+      <c r="W32" t="s">
+        <v>576</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -3717,8 +4391,17 @@
       <c r="U33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V33" t="s">
+        <v>530</v>
+      </c>
+      <c r="W33" t="s">
+        <v>577</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -3755,8 +4438,17 @@
       <c r="U34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34" t="s">
+        <v>531</v>
+      </c>
+      <c r="W34" t="s">
+        <v>578</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>62</v>
       </c>
@@ -3778,8 +4470,17 @@
       <c r="U35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35" t="s">
+        <v>476</v>
+      </c>
+      <c r="W35" t="s">
+        <v>579</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>63</v>
       </c>
@@ -3798,8 +4499,17 @@
       <c r="O36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V36" t="s">
+        <v>532</v>
+      </c>
+      <c r="W36" t="s">
+        <v>580</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>64</v>
       </c>
@@ -3818,8 +4528,17 @@
       <c r="O37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V37" t="s">
+        <v>533</v>
+      </c>
+      <c r="W37" t="s">
+        <v>581</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>65</v>
       </c>
@@ -3838,8 +4557,17 @@
       <c r="O38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V38" t="s">
+        <v>534</v>
+      </c>
+      <c r="W38" t="s">
+        <v>582</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>66</v>
       </c>
@@ -3858,8 +4586,17 @@
       <c r="O39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V39" t="s">
+        <v>535</v>
+      </c>
+      <c r="W39" t="s">
+        <v>583</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>67</v>
       </c>
@@ -3878,8 +4615,17 @@
       <c r="O40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V40" t="s">
+        <v>536</v>
+      </c>
+      <c r="W40" t="s">
+        <v>584</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>68</v>
       </c>
@@ -3898,8 +4644,17 @@
       <c r="O41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V41" t="s">
+        <v>537</v>
+      </c>
+      <c r="W41" t="s">
+        <v>585</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M42" t="s">
         <v>277</v>
       </c>
@@ -3909,8 +4664,17 @@
       <c r="O42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V42" t="s">
+        <v>538</v>
+      </c>
+      <c r="W42" t="s">
+        <v>586</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M43" t="s">
         <v>278</v>
       </c>
@@ -3920,8 +4684,17 @@
       <c r="O43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V43" t="s">
+        <v>539</v>
+      </c>
+      <c r="W43" t="s">
+        <v>587</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M44" t="s">
         <v>279</v>
       </c>
@@ -3931,8 +4704,17 @@
       <c r="O44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V44" t="s">
+        <v>540</v>
+      </c>
+      <c r="W44" t="s">
+        <v>588</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M45" t="s">
         <v>280</v>
       </c>
@@ -3942,8 +4724,17 @@
       <c r="O45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V45" t="s">
+        <v>541</v>
+      </c>
+      <c r="W45" t="s">
+        <v>589</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M46" t="s">
         <v>281</v>
       </c>
@@ -3953,8 +4744,17 @@
       <c r="O46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V46" t="s">
+        <v>477</v>
+      </c>
+      <c r="W46" t="s">
+        <v>590</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="M47" t="s">
         <v>282</v>
       </c>
@@ -3962,6 +4762,92 @@
         <v>326</v>
       </c>
       <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="V47" t="s">
+        <v>478</v>
+      </c>
+      <c r="W47" t="s">
+        <v>591</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V48" t="s">
+        <v>542</v>
+      </c>
+      <c r="W48" t="s">
+        <v>592</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V49" t="s">
+        <v>543</v>
+      </c>
+      <c r="W49" t="s">
+        <v>593</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V50" t="s">
+        <v>544</v>
+      </c>
+      <c r="W50" t="s">
+        <v>594</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V51" t="s">
+        <v>486</v>
+      </c>
+      <c r="W51" t="s">
+        <v>595</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V52" t="s">
+        <v>545</v>
+      </c>
+      <c r="W52" t="s">
+        <v>596</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V53" t="s">
+        <v>546</v>
+      </c>
+      <c r="W53" t="s">
+        <v>597</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="22:24" x14ac:dyDescent="0.25">
+      <c r="V54" t="s">
+        <v>547</v>
+      </c>
+      <c r="W54" t="s">
+        <v>598</v>
+      </c>
+      <c r="X54">
         <v>0</v>
       </c>
     </row>
@@ -3975,8 +4861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96243044-DAFC-4DB6-9967-18D55104159C}">
   <dimension ref="A2:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4496,6 +5382,12 @@
       <c r="B26" t="s">
         <v>466</v>
       </c>
+      <c r="L26" t="s">
+        <v>506</v>
+      </c>
+      <c r="M26" t="s">
+        <v>467</v>
+      </c>
       <c r="AB26" t="s">
         <v>275</v>
       </c>
@@ -4522,6 +5414,33 @@
       <c r="G27" t="s">
         <v>79</v>
       </c>
+      <c r="L27" t="s">
+        <v>468</v>
+      </c>
+      <c r="M27" t="s">
+        <v>470</v>
+      </c>
+      <c r="N27" t="s">
+        <v>474</v>
+      </c>
+      <c r="O27" t="s">
+        <v>479</v>
+      </c>
+      <c r="P27" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>484</v>
+      </c>
+      <c r="R27" t="s">
+        <v>470</v>
+      </c>
+      <c r="S27" t="s">
+        <v>488</v>
+      </c>
+      <c r="T27" t="s">
+        <v>505</v>
+      </c>
       <c r="AB27" t="s">
         <v>276</v>
       </c>
@@ -4548,6 +5467,33 @@
       <c r="G28">
         <v>5</v>
       </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>3</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
       <c r="AB28" t="s">
         <v>277</v>
       </c>
@@ -4574,6 +5520,33 @@
       <c r="G29" t="s">
         <v>41</v>
       </c>
+      <c r="L29" t="s">
+        <v>469</v>
+      </c>
+      <c r="M29" t="s">
+        <v>471</v>
+      </c>
+      <c r="N29" t="s">
+        <v>475</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>152</v>
+      </c>
+      <c r="R29" t="s">
+        <v>486</v>
+      </c>
+      <c r="S29" t="s">
+        <v>489</v>
+      </c>
+      <c r="T29" t="s">
+        <v>505</v>
+      </c>
       <c r="AB29" t="s">
         <v>278</v>
       </c>
@@ -4591,6 +5564,27 @@
       <c r="G30" t="s">
         <v>42</v>
       </c>
+      <c r="M30" t="s">
+        <v>472</v>
+      </c>
+      <c r="N30" t="s">
+        <v>476</v>
+      </c>
+      <c r="O30" t="s">
+        <v>241</v>
+      </c>
+      <c r="P30" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>162</v>
+      </c>
+      <c r="R30" t="s">
+        <v>245</v>
+      </c>
+      <c r="S30" t="s">
+        <v>490</v>
+      </c>
       <c r="AB30" t="s">
         <v>279</v>
       </c>
@@ -4602,6 +5596,27 @@
       <c r="G31" t="s">
         <v>43</v>
       </c>
+      <c r="M31" t="s">
+        <v>473</v>
+      </c>
+      <c r="N31" t="s">
+        <v>477</v>
+      </c>
+      <c r="O31" t="s">
+        <v>245</v>
+      </c>
+      <c r="P31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>485</v>
+      </c>
+      <c r="R31" t="s">
+        <v>247</v>
+      </c>
+      <c r="S31" t="s">
+        <v>491</v>
+      </c>
       <c r="AB31" t="s">
         <v>280</v>
       </c>
@@ -4610,6 +5625,24 @@
       <c r="G32" t="s">
         <v>44</v>
       </c>
+      <c r="N32" t="s">
+        <v>478</v>
+      </c>
+      <c r="O32" t="s">
+        <v>247</v>
+      </c>
+      <c r="P32" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>242</v>
+      </c>
+      <c r="R32" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" t="s">
+        <v>492</v>
+      </c>
       <c r="AB32" t="s">
         <v>281</v>
       </c>
@@ -4618,6 +5651,21 @@
       <c r="G33" t="s">
         <v>45</v>
       </c>
+      <c r="O33" t="s">
+        <v>248</v>
+      </c>
+      <c r="P33" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>267</v>
+      </c>
+      <c r="R33" t="s">
+        <v>40</v>
+      </c>
+      <c r="S33" t="s">
+        <v>493</v>
+      </c>
       <c r="AB33" t="s">
         <v>282</v>
       </c>
@@ -4626,6 +5674,21 @@
       <c r="G34" t="s">
         <v>46</v>
       </c>
+      <c r="O34" t="s">
+        <v>249</v>
+      </c>
+      <c r="P34" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>38</v>
+      </c>
+      <c r="R34" t="s">
+        <v>487</v>
+      </c>
+      <c r="S34" t="s">
+        <v>65</v>
+      </c>
       <c r="AB34" t="s">
         <v>162</v>
       </c>
@@ -4634,6 +5697,12 @@
       <c r="G35" t="s">
         <v>47</v>
       </c>
+      <c r="P35" t="s">
+        <v>68</v>
+      </c>
+      <c r="S35" t="s">
+        <v>68</v>
+      </c>
       <c r="AB35" t="s">
         <v>163</v>
       </c>
@@ -4642,103 +5711,151 @@
       <c r="G36" t="s">
         <v>48</v>
       </c>
+      <c r="P36" t="s">
+        <v>482</v>
+      </c>
+      <c r="S36" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="37" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G37" t="s">
         <v>49</v>
       </c>
+      <c r="P37" t="s">
+        <v>483</v>
+      </c>
+      <c r="S37" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="38" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G38" t="s">
         <v>50</v>
       </c>
+      <c r="S38" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="39" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G39" t="s">
         <v>51</v>
       </c>
+      <c r="S39" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="40" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
         <v>52</v>
       </c>
+      <c r="S40" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="41" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G41" t="s">
         <v>53</v>
       </c>
+      <c r="S41" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="42" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G42" t="s">
         <v>54</v>
       </c>
+      <c r="S42" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="43" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G43" t="s">
         <v>55</v>
       </c>
+      <c r="S43" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="44" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G44" t="s">
         <v>56</v>
       </c>
+      <c r="S44" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="45" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G45" t="s">
         <v>57</v>
       </c>
+      <c r="S45" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="46" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G46" t="s">
         <v>58</v>
       </c>
+      <c r="S46" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="47" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G47" t="s">
         <v>59</v>
       </c>
+      <c r="S47" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="48" spans="7:28" x14ac:dyDescent="0.25">
       <c r="G48" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="S48" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="49" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G49" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="S49" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="50" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:19" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
         <v>68</v>
       </c>

--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CA0CB2-B311-4184-9223-C898649C95DA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2871DB0A-4B66-4C7F-A241-F90DE14AB2F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="598">
   <si>
     <t>course_code</t>
   </si>
@@ -1417,9 +1417,6 @@
     <t>Intermediate Calculus</t>
   </si>
   <si>
-    <t>FlexCourse</t>
-  </si>
-  <si>
     <t xml:space="preserve">Capstone </t>
   </si>
   <si>
@@ -1501,9 +1498,6 @@
     <t>Three Electives</t>
   </si>
   <si>
-    <t>Custom</t>
-  </si>
-  <si>
     <t>CLPS 0950</t>
   </si>
   <si>
@@ -1829,6 +1823,9 @@
   </si>
   <si>
     <t>Senior Seminar in Behavioral Decision Sciences</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -2191,7 +2188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF0174-35EF-4838-880B-C4F8D4E4CC9D}">
   <dimension ref="A2:X54"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="O5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
@@ -2352,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="W3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -2426,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -2500,10 +2497,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="W5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -2574,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="W6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -2648,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="W7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -2722,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="W8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -2796,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="W9" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -2870,10 +2867,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="W10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -2944,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="W11" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -3018,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="W12" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -3092,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W13" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="X13">
         <v>0</v>
@@ -3166,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="W14" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -3240,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="W15" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -3314,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="W16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="X16">
         <v>0</v>
@@ -3388,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="W17" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -3462,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="W18" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -3536,10 +3533,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W19" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -3610,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="W20" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="X20">
         <v>0</v>
@@ -3684,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="W21" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="X21">
         <v>0</v>
@@ -3758,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="W22" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -3832,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="W23" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -3897,10 +3894,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="W24" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="X24">
         <v>0</v>
@@ -3962,10 +3959,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="W25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="X25">
         <v>0</v>
@@ -4027,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W26" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="X26">
         <v>0</v>
@@ -4092,10 +4089,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="W27" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -4157,10 +4154,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="W28" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -4204,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="W29" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -4251,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="W30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="X30">
         <v>0</v>
@@ -4298,10 +4295,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="W31" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X31">
         <v>0</v>
@@ -4345,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="W32" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -4392,10 +4389,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="W33" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -4439,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="W34" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -4471,10 +4468,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="W35" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="X35">
         <v>0</v>
@@ -4500,10 +4497,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="W36" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -4529,10 +4526,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="W37" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="X37">
         <v>0</v>
@@ -4558,10 +4555,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="W38" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -4587,10 +4584,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="W39" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -4616,10 +4613,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="W40" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="X40">
         <v>0</v>
@@ -4645,10 +4642,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="W41" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -4665,10 +4662,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="W42" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="X42">
         <v>0</v>
@@ -4685,10 +4682,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="W43" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -4705,10 +4702,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="W44" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="X44">
         <v>0</v>
@@ -4725,10 +4722,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="W45" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -4745,10 +4742,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="W46" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -4765,10 +4762,10 @@
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="W47" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -4776,10 +4773,10 @@
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="V48" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="W48" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -4787,10 +4784,10 @@
     </row>
     <row r="49" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V49" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="W49" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -4798,10 +4795,10 @@
     </row>
     <row r="50" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V50" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="W50" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -4809,10 +4806,10 @@
     </row>
     <row r="51" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V51" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="W51" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -4820,10 +4817,10 @@
     </row>
     <row r="52" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V52" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="W52" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -4831,10 +4828,10 @@
     </row>
     <row r="53" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V53" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="W53" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="X53">
         <v>0</v>
@@ -4842,10 +4839,10 @@
     </row>
     <row r="54" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V54" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="W54" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -4861,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96243044-DAFC-4DB6-9967-18D55104159C}">
   <dimension ref="A2:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I13" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="Q7" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4882,19 +4879,19 @@
         <v>390</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J2" t="s">
         <v>392</v>
       </c>
       <c r="K2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="V2" t="s">
         <v>393</v>
       </c>
       <c r="W2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -5053,7 +5050,7 @@
         <v>153</v>
       </c>
       <c r="P5" t="s">
-        <v>461</v>
+        <v>597</v>
       </c>
       <c r="V5" t="s">
         <v>7</v>
@@ -5077,10 +5074,10 @@
         <v>254</v>
       </c>
       <c r="AC5" t="s">
+        <v>597</v>
+      </c>
+      <c r="AD5" t="s">
         <v>461</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -5130,7 +5127,7 @@
         <v>255</v>
       </c>
       <c r="AC6" t="s">
-        <v>461</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -5153,7 +5150,7 @@
         <v>249</v>
       </c>
       <c r="X7" t="s">
-        <v>461</v>
+        <v>597</v>
       </c>
       <c r="AA7" t="s">
         <v>10</v>
@@ -5162,7 +5159,7 @@
         <v>256</v>
       </c>
       <c r="AC7" t="s">
-        <v>461</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -5380,13 +5377,13 @@
         <v>391</v>
       </c>
       <c r="B26" t="s">
+        <v>465</v>
+      </c>
+      <c r="L26" t="s">
+        <v>504</v>
+      </c>
+      <c r="M26" t="s">
         <v>466</v>
-      </c>
-      <c r="L26" t="s">
-        <v>506</v>
-      </c>
-      <c r="M26" t="s">
-        <v>467</v>
       </c>
       <c r="AB26" t="s">
         <v>275</v>
@@ -5415,31 +5412,31 @@
         <v>79</v>
       </c>
       <c r="L27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O27" t="s">
+        <v>478</v>
+      </c>
+      <c r="P27" t="s">
         <v>479</v>
       </c>
-      <c r="P27" t="s">
-        <v>480</v>
-      </c>
       <c r="Q27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="R27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AB27" t="s">
         <v>276</v>
@@ -5521,13 +5518,13 @@
         <v>41</v>
       </c>
       <c r="L29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O29" t="s">
         <v>34</v>
@@ -5539,13 +5536,13 @@
         <v>152</v>
       </c>
       <c r="R29" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="S29" t="s">
-        <v>489</v>
+        <v>597</v>
       </c>
       <c r="T29" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AB29" t="s">
         <v>278</v>
@@ -5565,10 +5562,10 @@
         <v>42</v>
       </c>
       <c r="M30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O30" t="s">
         <v>241</v>
@@ -5583,7 +5580,7 @@
         <v>245</v>
       </c>
       <c r="S30" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AB30" t="s">
         <v>279</v>
@@ -5597,10 +5594,10 @@
         <v>43</v>
       </c>
       <c r="M31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N31" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O31" t="s">
         <v>245</v>
@@ -5609,13 +5606,13 @@
         <v>35</v>
       </c>
       <c r="Q31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="R31" t="s">
         <v>247</v>
       </c>
       <c r="S31" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AB31" t="s">
         <v>280</v>
@@ -5626,7 +5623,7 @@
         <v>44</v>
       </c>
       <c r="N32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O32" t="s">
         <v>247</v>
@@ -5641,7 +5638,7 @@
         <v>39</v>
       </c>
       <c r="S32" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="AB32" t="s">
         <v>281</v>
@@ -5655,7 +5652,7 @@
         <v>248</v>
       </c>
       <c r="P33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q33" t="s">
         <v>267</v>
@@ -5664,7 +5661,7 @@
         <v>40</v>
       </c>
       <c r="S33" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AB33" t="s">
         <v>282</v>
@@ -5684,7 +5681,7 @@
         <v>38</v>
       </c>
       <c r="R34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="S34" t="s">
         <v>65</v>
@@ -5712,10 +5709,10 @@
         <v>48</v>
       </c>
       <c r="P36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S36" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="7:28" x14ac:dyDescent="0.25">
@@ -5723,7 +5720,7 @@
         <v>49</v>
       </c>
       <c r="P37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="S37" t="s">
         <v>165</v>
@@ -5734,7 +5731,7 @@
         <v>50</v>
       </c>
       <c r="S38" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="7:28" x14ac:dyDescent="0.25">
@@ -5742,7 +5739,7 @@
         <v>51</v>
       </c>
       <c r="S39" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="7:28" x14ac:dyDescent="0.25">
@@ -5750,7 +5747,7 @@
         <v>52</v>
       </c>
       <c r="S40" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="41" spans="7:28" x14ac:dyDescent="0.25">
@@ -5758,7 +5755,7 @@
         <v>53</v>
       </c>
       <c r="S41" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="7:28" x14ac:dyDescent="0.25">
@@ -5766,7 +5763,7 @@
         <v>54</v>
       </c>
       <c r="S42" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="7:28" x14ac:dyDescent="0.25">
@@ -5790,7 +5787,7 @@
         <v>57</v>
       </c>
       <c r="S45" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="46" spans="7:28" x14ac:dyDescent="0.25">
@@ -5798,7 +5795,7 @@
         <v>58</v>
       </c>
       <c r="S46" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="47" spans="7:28" x14ac:dyDescent="0.25">
@@ -5806,7 +5803,7 @@
         <v>59</v>
       </c>
       <c r="S47" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="7:28" x14ac:dyDescent="0.25">
@@ -5814,7 +5811,7 @@
         <v>60</v>
       </c>
       <c r="S48" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="49" spans="7:19" x14ac:dyDescent="0.25">
@@ -5822,7 +5819,7 @@
         <v>61</v>
       </c>
       <c r="S49" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50" spans="7:19" x14ac:dyDescent="0.25">

--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2871DB0A-4B66-4C7F-A241-F90DE14AB2F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B20E52-262E-4748-B33F-8764BB672576}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="638">
   <si>
     <t>course_code</t>
   </si>
@@ -1826,6 +1827,126 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Psychology AB</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Social/ Personality</t>
+  </si>
+  <si>
+    <t>Perception/Cognition</t>
+  </si>
+  <si>
+    <t>CLPS 0450</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>CLPS 0600</t>
+  </si>
+  <si>
+    <t>CLPS 0620</t>
+  </si>
+  <si>
+    <t>Learning/Animal Behavior/Behavioral Neuroscience</t>
+  </si>
+  <si>
+    <t>CLPS 0110</t>
+  </si>
+  <si>
+    <t>CPS 0150</t>
+  </si>
+  <si>
+    <t>Four Electives</t>
+  </si>
+  <si>
+    <t>CLPS 1100</t>
+  </si>
+  <si>
+    <t>CLPS 1150</t>
+  </si>
+  <si>
+    <t>CLPS 1160</t>
+  </si>
+  <si>
+    <t>CLPS 1200</t>
+  </si>
+  <si>
+    <t>CLPS 1480B</t>
+  </si>
+  <si>
+    <t>CLPS 1650</t>
+  </si>
+  <si>
+    <t>CLPS 1820</t>
+  </si>
+  <si>
+    <t>EDUC 1260</t>
+  </si>
+  <si>
+    <t>PHIL 1770</t>
+  </si>
+  <si>
+    <t>Independent Study or Seminar</t>
+  </si>
+  <si>
+    <t>CLPS 1400</t>
+  </si>
+  <si>
+    <t>CLPS 1560</t>
+  </si>
+  <si>
+    <t>CLPS 1781</t>
+  </si>
+  <si>
+    <t>CLPS 1783</t>
+  </si>
+  <si>
+    <t>Research Methods and Design</t>
+  </si>
+  <si>
+    <t>Psychology ScB</t>
+  </si>
+  <si>
+    <t>Laboratory Course</t>
+  </si>
+  <si>
+    <t>CLPS 1180A</t>
+  </si>
+  <si>
+    <t>CLPS 1290</t>
+  </si>
+  <si>
+    <t>CLPS 1490</t>
+  </si>
+  <si>
+    <t>CLPS 1690</t>
+  </si>
+  <si>
+    <t>Four Approved Science Courses</t>
+  </si>
+  <si>
+    <t>BIOL 0200</t>
+  </si>
+  <si>
+    <t>BIOL 0800</t>
+  </si>
+  <si>
+    <t>CHEM 0350</t>
+  </si>
+  <si>
+    <t>ENGN 1220</t>
+  </si>
+  <si>
+    <t>NEUR 1030</t>
+  </si>
+  <si>
+    <t>NEUR 1040</t>
   </si>
 </sst>
 </file>
@@ -4858,8 +4979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96243044-DAFC-4DB6-9967-18D55104159C}">
   <dimension ref="A2:AD56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q7" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5861,4 +5982,529 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9C883B-EF74-4BC0-8652-4174049AF6A8}">
+  <dimension ref="A2:V22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>598</v>
+      </c>
+      <c r="M2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F3" t="s">
+        <v>606</v>
+      </c>
+      <c r="G3" t="s">
+        <v>609</v>
+      </c>
+      <c r="H3" t="s">
+        <v>619</v>
+      </c>
+      <c r="I3" t="s">
+        <v>624</v>
+      </c>
+      <c r="L3" t="s">
+        <v>599</v>
+      </c>
+      <c r="M3" t="s">
+        <v>561</v>
+      </c>
+      <c r="N3" t="s">
+        <v>600</v>
+      </c>
+      <c r="O3" t="s">
+        <v>601</v>
+      </c>
+      <c r="P3" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>606</v>
+      </c>
+      <c r="R3" t="s">
+        <v>609</v>
+      </c>
+      <c r="S3" t="s">
+        <v>619</v>
+      </c>
+      <c r="T3" t="s">
+        <v>624</v>
+      </c>
+      <c r="U3" t="s">
+        <v>626</v>
+      </c>
+      <c r="V3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E5" t="s">
+        <v>604</v>
+      </c>
+      <c r="F5" t="s">
+        <v>507</v>
+      </c>
+      <c r="G5" t="s">
+        <v>597</v>
+      </c>
+      <c r="H5" t="s">
+        <v>597</v>
+      </c>
+      <c r="I5" t="s">
+        <v>544</v>
+      </c>
+      <c r="L5" t="s">
+        <v>505</v>
+      </c>
+      <c r="M5" t="s">
+        <v>484</v>
+      </c>
+      <c r="N5" t="s">
+        <v>472</v>
+      </c>
+      <c r="O5" t="s">
+        <v>471</v>
+      </c>
+      <c r="P5" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>507</v>
+      </c>
+      <c r="R5" t="s">
+        <v>597</v>
+      </c>
+      <c r="S5" t="s">
+        <v>597</v>
+      </c>
+      <c r="T5" t="s">
+        <v>544</v>
+      </c>
+      <c r="U5" t="s">
+        <v>597</v>
+      </c>
+      <c r="V5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D6" t="s">
+        <v>602</v>
+      </c>
+      <c r="E6" t="s">
+        <v>513</v>
+      </c>
+      <c r="F6" t="s">
+        <v>607</v>
+      </c>
+      <c r="G6" t="s">
+        <v>488</v>
+      </c>
+      <c r="H6" t="s">
+        <v>620</v>
+      </c>
+      <c r="N6" t="s">
+        <v>515</v>
+      </c>
+      <c r="O6" t="s">
+        <v>602</v>
+      </c>
+      <c r="P6" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>607</v>
+      </c>
+      <c r="R6" t="s">
+        <v>488</v>
+      </c>
+      <c r="S6" t="s">
+        <v>620</v>
+      </c>
+      <c r="U6" t="s">
+        <v>627</v>
+      </c>
+      <c r="V6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>538</v>
+      </c>
+      <c r="D7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F7" t="s">
+        <v>608</v>
+      </c>
+      <c r="G7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H7" t="s">
+        <v>614</v>
+      </c>
+      <c r="N7" t="s">
+        <v>538</v>
+      </c>
+      <c r="O7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P7" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>608</v>
+      </c>
+      <c r="R7" t="s">
+        <v>610</v>
+      </c>
+      <c r="S7" t="s">
+        <v>614</v>
+      </c>
+      <c r="U7" t="s">
+        <v>518</v>
+      </c>
+      <c r="V7" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>597</v>
+      </c>
+      <c r="F8" t="s">
+        <v>597</v>
+      </c>
+      <c r="G8" t="s">
+        <v>611</v>
+      </c>
+      <c r="H8" t="s">
+        <v>528</v>
+      </c>
+      <c r="P8" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>597</v>
+      </c>
+      <c r="R8" t="s">
+        <v>611</v>
+      </c>
+      <c r="S8" t="s">
+        <v>528</v>
+      </c>
+      <c r="U8" t="s">
+        <v>519</v>
+      </c>
+      <c r="V8" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>612</v>
+      </c>
+      <c r="H9" t="s">
+        <v>474</v>
+      </c>
+      <c r="R9" t="s">
+        <v>612</v>
+      </c>
+      <c r="S9" t="s">
+        <v>474</v>
+      </c>
+      <c r="U9" t="s">
+        <v>628</v>
+      </c>
+      <c r="V9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>520</v>
+      </c>
+      <c r="H10" t="s">
+        <v>475</v>
+      </c>
+      <c r="R10" t="s">
+        <v>520</v>
+      </c>
+      <c r="S10" t="s">
+        <v>475</v>
+      </c>
+      <c r="U10" t="s">
+        <v>629</v>
+      </c>
+      <c r="V10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>613</v>
+      </c>
+      <c r="H11" t="s">
+        <v>621</v>
+      </c>
+      <c r="R11" t="s">
+        <v>613</v>
+      </c>
+      <c r="S11" t="s">
+        <v>621</v>
+      </c>
+      <c r="U11" t="s">
+        <v>529</v>
+      </c>
+      <c r="V11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>522</v>
+      </c>
+      <c r="H12" t="s">
+        <v>539</v>
+      </c>
+      <c r="R12" t="s">
+        <v>522</v>
+      </c>
+      <c r="S12" t="s">
+        <v>539</v>
+      </c>
+      <c r="U12" t="s">
+        <v>531</v>
+      </c>
+      <c r="V12" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>614</v>
+      </c>
+      <c r="H13" t="s">
+        <v>477</v>
+      </c>
+      <c r="R13" t="s">
+        <v>614</v>
+      </c>
+      <c r="S13" t="s">
+        <v>477</v>
+      </c>
+      <c r="U13" t="s">
+        <v>534</v>
+      </c>
+      <c r="V13" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>530</v>
+      </c>
+      <c r="H14" t="s">
+        <v>622</v>
+      </c>
+      <c r="R14" t="s">
+        <v>530</v>
+      </c>
+      <c r="S14" t="s">
+        <v>622</v>
+      </c>
+      <c r="U14" t="s">
+        <v>630</v>
+      </c>
+      <c r="V14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>531</v>
+      </c>
+      <c r="H15" t="s">
+        <v>623</v>
+      </c>
+      <c r="R15" t="s">
+        <v>531</v>
+      </c>
+      <c r="S15" t="s">
+        <v>623</v>
+      </c>
+      <c r="U15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>535</v>
+      </c>
+      <c r="R16" t="s">
+        <v>535</v>
+      </c>
+      <c r="U16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>615</v>
+      </c>
+      <c r="R17" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="18" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>539</v>
+      </c>
+      <c r="R18" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="19" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>476</v>
+      </c>
+      <c r="R19" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>616</v>
+      </c>
+      <c r="R20" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="21" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>617</v>
+      </c>
+      <c r="R21" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="22" spans="7:18" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>618</v>
+      </c>
+      <c r="R22" t="s">
+        <v>618</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B20E52-262E-4748-B33F-8764BB672576}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36AF41A-3E51-47CA-9DCD-3AB93C9D377C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="746">
   <si>
     <t>course_code</t>
   </si>
@@ -1859,9 +1859,6 @@
     <t>CLPS 0110</t>
   </si>
   <si>
-    <t>CPS 0150</t>
-  </si>
-  <si>
     <t>Four Electives</t>
   </si>
   <si>
@@ -1947,6 +1944,333 @@
   </si>
   <si>
     <t>NEUR 1040</t>
+  </si>
+  <si>
+    <t>PLCY 0100</t>
+  </si>
+  <si>
+    <t>Ethics and Public Policy</t>
+  </si>
+  <si>
+    <t>POLS 1050</t>
+  </si>
+  <si>
+    <t>PLCY 1700T</t>
+  </si>
+  <si>
+    <t>Economics for Public Policy</t>
+  </si>
+  <si>
+    <t>EDUC 1130</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>POLS 1600</t>
+  </si>
+  <si>
+    <t>EDUC 1100</t>
+  </si>
+  <si>
+    <t>SOC 1100</t>
+  </si>
+  <si>
+    <t>Policy Analysis and Program Evaluation</t>
+  </si>
+  <si>
+    <t>PLCY 1200</t>
+  </si>
+  <si>
+    <t>EDUC 1160</t>
+  </si>
+  <si>
+    <t>Two More Electives in an Area Already Studied</t>
+  </si>
+  <si>
+    <t>Broad Electives in any policy area</t>
+  </si>
+  <si>
+    <t>Public Policy AB</t>
+  </si>
+  <si>
+    <t>To see policy areas for the electives, visit the Brown Concentrations page. Also on this page is information on the senior capstone.</t>
+  </si>
+  <si>
+    <t>CLPS 0150</t>
+  </si>
+  <si>
+    <t>POLS 0010</t>
+  </si>
+  <si>
+    <t>POLS 0110</t>
+  </si>
+  <si>
+    <t>POLS 0200</t>
+  </si>
+  <si>
+    <t>POLS 0220</t>
+  </si>
+  <si>
+    <t>POLS 0400</t>
+  </si>
+  <si>
+    <t>POLS 0500</t>
+  </si>
+  <si>
+    <t>POLS 1020</t>
+  </si>
+  <si>
+    <t>POLS 1035</t>
+  </si>
+  <si>
+    <t>POLS 1070</t>
+  </si>
+  <si>
+    <t>POLS 1075</t>
+  </si>
+  <si>
+    <t>POLS 1100</t>
+  </si>
+  <si>
+    <t>POLS 1130</t>
+  </si>
+  <si>
+    <t>POLS 1140</t>
+  </si>
+  <si>
+    <t>POLS 1160</t>
+  </si>
+  <si>
+    <t>POLS 1200</t>
+  </si>
+  <si>
+    <t>POLS 1210</t>
+  </si>
+  <si>
+    <t>POLS 1250</t>
+  </si>
+  <si>
+    <t>POLS 1260</t>
+  </si>
+  <si>
+    <t>POLS 1280</t>
+  </si>
+  <si>
+    <t>POLS 1310</t>
+  </si>
+  <si>
+    <t>POLS 1315</t>
+  </si>
+  <si>
+    <t>POLS 1335</t>
+  </si>
+  <si>
+    <t>POLS 1360</t>
+  </si>
+  <si>
+    <t>POLS 1410</t>
+  </si>
+  <si>
+    <t>POLS 1440</t>
+  </si>
+  <si>
+    <t>POLS 1465</t>
+  </si>
+  <si>
+    <t>POLS 1500</t>
+  </si>
+  <si>
+    <t>POLS 1730</t>
+  </si>
+  <si>
+    <t>POLS 1770</t>
+  </si>
+  <si>
+    <t>POLS 1910</t>
+  </si>
+  <si>
+    <t>POLS 1920</t>
+  </si>
+  <si>
+    <t>Introduction to the American Political Process</t>
+  </si>
+  <si>
+    <t>Introduction to Political Thought</t>
+  </si>
+  <si>
+    <t>Introduction to Comparative Politics</t>
+  </si>
+  <si>
+    <t>City Politics</t>
+  </si>
+  <si>
+    <t>Introduction to International Politics</t>
+  </si>
+  <si>
+    <t>Foundations of Political Analysis</t>
+  </si>
+  <si>
+    <t>Politics of the Illicit Global Economy</t>
+  </si>
+  <si>
+    <t>Democracy and Its Nineteenth Century Critics</t>
+  </si>
+  <si>
+    <t>Rights</t>
+  </si>
+  <si>
+    <t>Ancients and Moderns</t>
+  </si>
+  <si>
+    <t>U.S. Congress</t>
+  </si>
+  <si>
+    <t>The American Presidency</t>
+  </si>
+  <si>
+    <t>Public Opinion and American Democracy</t>
+  </si>
+  <si>
+    <t>Prosperity: The Ethics and Economics of Wealth Creation</t>
+  </si>
+  <si>
+    <t>Constitutional Law: Government Powers</t>
+  </si>
+  <si>
+    <t>Reimagining Capitalism</t>
+  </si>
+  <si>
+    <t>Latin American Politics</t>
+  </si>
+  <si>
+    <t>The Politics of European Democracies</t>
+  </si>
+  <si>
+    <t>Maps and Politics</t>
+  </si>
+  <si>
+    <t>Politics, Economy and Society in India</t>
+  </si>
+  <si>
+    <t>African American Politics</t>
+  </si>
+  <si>
+    <t>Social Groups in American Politics</t>
+  </si>
+  <si>
+    <t>Slavery and Freedom: Selections from African American Political Thought</t>
+  </si>
+  <si>
+    <t>U.S. Gender Politics</t>
+  </si>
+  <si>
+    <t>International Security in a Changing World</t>
+  </si>
+  <si>
+    <t>Security, Governance and Development in Africa</t>
+  </si>
+  <si>
+    <t>Analytical Foundations of Political Economy</t>
+  </si>
+  <si>
+    <t>International Negotiation and Conflict Resolution</t>
+  </si>
+  <si>
+    <t>The International Law and Politics of Human Rights</t>
+  </si>
+  <si>
+    <t>Political Research Methods</t>
+  </si>
+  <si>
+    <t>Politics of Globalization</t>
+  </si>
+  <si>
+    <t>Education, Inequality, and American Democracy</t>
+  </si>
+  <si>
+    <t>Senior Honors Thesis Preparation</t>
+  </si>
+  <si>
+    <t>PLCY 1400</t>
+  </si>
+  <si>
+    <t>PLCY 1600</t>
+  </si>
+  <si>
+    <t>PLCY 1822</t>
+  </si>
+  <si>
+    <t>PLCY 1910</t>
+  </si>
+  <si>
+    <t>PLCY 1990</t>
+  </si>
+  <si>
+    <t>PLCY 1800</t>
+  </si>
+  <si>
+    <t>PLCY 1701R</t>
+  </si>
+  <si>
+    <t>PLCY 17012F</t>
+  </si>
+  <si>
+    <t>PLCY 1702G</t>
+  </si>
+  <si>
+    <t>PLCY 1702M</t>
+  </si>
+  <si>
+    <t>PLCY 1703A</t>
+  </si>
+  <si>
+    <t>PLCY 1703C</t>
+  </si>
+  <si>
+    <t>PLCY 1703F</t>
+  </si>
+  <si>
+    <t>Introduction to Public Policy</t>
+  </si>
+  <si>
+    <t>Discrimination and Public Policy</t>
+  </si>
+  <si>
+    <t>Political Communication</t>
+  </si>
+  <si>
+    <t>The Opiod Crisis: Causes, Effects, and Policy Solutions</t>
+  </si>
+  <si>
+    <t>The U.S. War on Drugs: From History to Policymaking and Beyond</t>
+  </si>
+  <si>
+    <t>Youth Politics and Culture in the Americas: Explorations through Ethnography</t>
+  </si>
+  <si>
+    <t>Policy Making and Policy Makers in Domestic and International Contexts</t>
+  </si>
+  <si>
+    <t>U.S.-Mexican Relations: History, Policy, and the Road Ahead</t>
+  </si>
+  <si>
+    <t>Investigating Modes of Social Change</t>
+  </si>
+  <si>
+    <t>Engaged Research Engaged Publics</t>
+  </si>
+  <si>
+    <t>PLCY 1802</t>
+  </si>
+  <si>
+    <t>Social Policy and Social Justice: Contestation and Compromise</t>
+  </si>
+  <si>
+    <t>Social Entrepreneurship</t>
+  </si>
+  <si>
+    <t>Public Policy Colloquium</t>
   </si>
 </sst>
 </file>
@@ -2307,10 +2631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF0174-35EF-4838-880B-C4F8D4E4CC9D}">
-  <dimension ref="A2:X54"/>
+  <dimension ref="A2:AD54"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V54" sqref="V54"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,9 +2656,13 @@
     <col min="20" max="20" width="15.42578125" customWidth="1"/>
     <col min="22" max="22" width="12.42578125" customWidth="1"/>
     <col min="23" max="23" width="13.7109375" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2404,8 +2732,23 @@
       <c r="W2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2478,8 +2821,26 @@
       <c r="X3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>686</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>637</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>732</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2552,8 +2913,26 @@
       <c r="X4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y4" t="s">
+        <v>656</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>638</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2626,8 +3005,26 @@
       <c r="X5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>688</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>720</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>641</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2700,8 +3097,26 @@
       <c r="X6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y6" t="s">
+        <v>658</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>725</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>733</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2774,8 +3189,26 @@
       <c r="X7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" t="s">
+        <v>659</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>726</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>734</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -2848,8 +3281,26 @@
       <c r="X8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y8" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>727</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>735</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2922,8 +3373,26 @@
       <c r="X9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" t="s">
+        <v>661</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>692</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>728</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>736</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -2996,8 +3465,26 @@
       <c r="X10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y10" t="s">
+        <v>662</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>693</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>729</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>737</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -3070,8 +3557,26 @@
       <c r="X11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>638</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>730</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -3144,8 +3649,26 @@
       <c r="X12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" t="s">
+        <v>663</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>694</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>731</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3218,8 +3741,26 @@
       <c r="X13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" t="s">
+        <v>664</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>724</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>740</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -3292,8 +3833,26 @@
       <c r="X14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" t="s">
+        <v>665</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>742</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -3366,8 +3925,26 @@
       <c r="X15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15" t="s">
+        <v>666</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>721</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3440,8 +4017,26 @@
       <c r="X16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>722</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3514,8 +4109,26 @@
       <c r="X17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17" t="s">
+        <v>500</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>723</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3588,8 +4201,17 @@
       <c r="X18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18" t="s">
+        <v>668</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3662,8 +4284,17 @@
       <c r="X19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19" t="s">
+        <v>669</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -3736,8 +4367,17 @@
       <c r="X20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20" t="s">
+        <v>670</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>702</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -3810,8 +4450,17 @@
       <c r="X21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" t="s">
+        <v>671</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>703</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3884,8 +4533,17 @@
       <c r="X22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22" t="s">
+        <v>672</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>704</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3958,8 +4616,17 @@
       <c r="X23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23" t="s">
+        <v>673</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -4023,8 +4690,17 @@
       <c r="X24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24" t="s">
+        <v>674</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>706</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -4088,8 +4764,17 @@
       <c r="X25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25" t="s">
+        <v>675</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>707</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -4153,8 +4838,17 @@
       <c r="X26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26" t="s">
+        <v>676</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>708</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -4218,8 +4912,17 @@
       <c r="X27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27" t="s">
+        <v>677</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -4283,8 +4986,17 @@
       <c r="X28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>710</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -4330,8 +5042,17 @@
       <c r="X29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29" t="s">
+        <v>679</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>711</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -4377,8 +5098,17 @@
       <c r="X30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30" t="s">
+        <v>680</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>712</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -4424,8 +5154,17 @@
       <c r="X31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31" t="s">
+        <v>501</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>713</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -4471,8 +5210,17 @@
       <c r="X32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32" t="s">
+        <v>681</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -4518,8 +5266,17 @@
       <c r="X33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33" t="s">
+        <v>644</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>715</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -4565,8 +5322,17 @@
       <c r="X34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y34" t="s">
+        <v>682</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>716</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>62</v>
       </c>
@@ -4597,8 +5363,17 @@
       <c r="X35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35" t="s">
+        <v>683</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>717</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>63</v>
       </c>
@@ -4626,8 +5401,17 @@
       <c r="X36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36" t="s">
+        <v>684</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>64</v>
       </c>
@@ -4655,8 +5439,17 @@
       <c r="X37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y37" t="s">
+        <v>685</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>718</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>65</v>
       </c>
@@ -4684,8 +5477,11 @@
       <c r="X38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>66</v>
       </c>
@@ -4713,8 +5509,11 @@
       <c r="X39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>67</v>
       </c>
@@ -4742,8 +5541,11 @@
       <c r="X40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>68</v>
       </c>
@@ -4771,8 +5573,11 @@
       <c r="X41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M42" t="s">
         <v>277</v>
       </c>
@@ -4791,8 +5596,11 @@
       <c r="X42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M43" t="s">
         <v>278</v>
       </c>
@@ -4812,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M44" t="s">
         <v>279</v>
       </c>
@@ -4832,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M45" t="s">
         <v>280</v>
       </c>
@@ -4852,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M46" t="s">
         <v>281</v>
       </c>
@@ -4872,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="M47" t="s">
         <v>282</v>
       </c>
@@ -4892,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="V48" t="s">
         <v>540</v>
       </c>
@@ -4979,7 +5787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96243044-DAFC-4DB6-9967-18D55104159C}">
   <dimension ref="A2:AD56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K8" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
@@ -5986,10 +6794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9C883B-EF74-4BC0-8652-4174049AF6A8}">
-  <dimension ref="A2:V22"/>
+  <dimension ref="A2:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5999,7 +6807,7 @@
         <v>598</v>
       </c>
       <c r="M2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -6022,13 +6830,13 @@
         <v>606</v>
       </c>
       <c r="G3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L3" t="s">
         <v>599</v>
@@ -6049,19 +6857,19 @@
         <v>606</v>
       </c>
       <c r="R3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="S3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="T3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="U3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="V3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -6205,7 +7013,7 @@
         <v>488</v>
       </c>
       <c r="H6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N6" t="s">
         <v>515</v>
@@ -6223,13 +7031,13 @@
         <v>488</v>
       </c>
       <c r="S6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="U6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="V6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -6243,13 +7051,13 @@
         <v>605</v>
       </c>
       <c r="F7" t="s">
-        <v>608</v>
+        <v>654</v>
       </c>
       <c r="G7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N7" t="s">
         <v>538</v>
@@ -6261,19 +7069,19 @@
         <v>605</v>
       </c>
       <c r="Q7" t="s">
-        <v>608</v>
+        <v>654</v>
       </c>
       <c r="R7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="S7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="U7" t="s">
         <v>518</v>
       </c>
       <c r="V7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -6284,7 +7092,7 @@
         <v>597</v>
       </c>
       <c r="G8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H8" t="s">
         <v>528</v>
@@ -6296,7 +7104,7 @@
         <v>597</v>
       </c>
       <c r="R8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="S8" t="s">
         <v>528</v>
@@ -6305,24 +7113,24 @@
         <v>519</v>
       </c>
       <c r="V8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H9" t="s">
         <v>474</v>
       </c>
       <c r="R9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="S9" t="s">
         <v>474</v>
       </c>
       <c r="U9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="V9" t="s">
         <v>266</v>
@@ -6342,24 +7150,24 @@
         <v>475</v>
       </c>
       <c r="U10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="V10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="R11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="S11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="U11" t="s">
         <v>529</v>
@@ -6385,18 +7193,18 @@
         <v>531</v>
       </c>
       <c r="V12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H13" t="s">
         <v>477</v>
       </c>
       <c r="R13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S13" t="s">
         <v>477</v>
@@ -6405,7 +7213,7 @@
         <v>534</v>
       </c>
       <c r="V13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -6413,16 +7221,16 @@
         <v>530</v>
       </c>
       <c r="H14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="R14" t="s">
         <v>530</v>
       </c>
       <c r="S14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="U14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="V14" t="s">
         <v>188</v>
@@ -6433,13 +7241,13 @@
         <v>531</v>
       </c>
       <c r="H15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="R15" t="s">
         <v>531</v>
       </c>
       <c r="S15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="U15" t="s">
         <v>485</v>
@@ -6456,15 +7264,15 @@
         <v>543</v>
       </c>
     </row>
-    <row r="17" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="R17" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="18" spans="7:18" x14ac:dyDescent="0.25">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G18" t="s">
         <v>539</v>
       </c>
@@ -6472,7 +7280,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="19" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>476</v>
       </c>
@@ -6480,28 +7288,146 @@
         <v>476</v>
       </c>
     </row>
-    <row r="20" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
+        <v>615</v>
+      </c>
+      <c r="R20" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
         <v>616</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R21" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="21" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G21" t="s">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
         <v>617</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R22" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="22" spans="7:18" x14ac:dyDescent="0.25">
-      <c r="G22" t="s">
-        <v>618</v>
-      </c>
-      <c r="R22" t="s">
-        <v>618</v>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>653</v>
+      </c>
+      <c r="B26" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>599</v>
+      </c>
+      <c r="B27" t="s">
+        <v>638</v>
+      </c>
+      <c r="C27" t="s">
+        <v>643</v>
+      </c>
+      <c r="D27" t="s">
+        <v>483</v>
+      </c>
+      <c r="E27" t="s">
+        <v>647</v>
+      </c>
+      <c r="F27" t="s">
+        <v>651</v>
+      </c>
+      <c r="G27" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>637</v>
+      </c>
+      <c r="B29" t="s">
+        <v>639</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>644</v>
+      </c>
+      <c r="E29" t="s">
+        <v>648</v>
+      </c>
+      <c r="F29" t="s">
+        <v>597</v>
+      </c>
+      <c r="G29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>640</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>645</v>
+      </c>
+      <c r="E30" t="s">
+        <v>649</v>
+      </c>
+      <c r="F30" t="s">
+        <v>597</v>
+      </c>
+      <c r="G30" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>642</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/data/provided/Department Courses.xlsx
+++ b/data/provided/Department Courses.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\shiny_personal\course_planner\data\provided\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36AF41A-3E51-47CA-9DCD-3AB93C9D377C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7649E6-4B56-4B08-99A6-85937E1E4A96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E601DBE6-96E0-4FE1-9F7C-E0164527EEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="A" sheetId="4" r:id="rId2"/>
+    <sheet name="B" sheetId="6" r:id="rId3"/>
+    <sheet name="E" sheetId="5" r:id="rId4"/>
+    <sheet name="M" sheetId="2" r:id="rId5"/>
+    <sheet name="P" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="834">
   <si>
     <t>course_code</t>
   </si>
@@ -1205,15 +1208,9 @@
     <t>La question animale</t>
   </si>
   <si>
-    <t>The year-long sequence of Math 0750/ Math 0760 may be substituted for one 1000-level Math Course. Selecting Math 0750 will add it and Math 0760 to your requirements</t>
-  </si>
-  <si>
     <t>If ECON 0110 is exempted, you must take an additional 1000-level Econ class</t>
   </si>
   <si>
-    <t>APMA 0330 and APMA 0340 will sometimes be accepted in place of APMA 0350 and APMA 0360</t>
-  </si>
-  <si>
     <t>Two 1000-level and one intermediate CS courses must satisfy a CS pathway. Check concentrations for more info.</t>
   </si>
   <si>
@@ -2271,6 +2268,276 @@
   </si>
   <si>
     <t>Public Policy Colloquium</t>
+  </si>
+  <si>
+    <t>Physics AB</t>
+  </si>
+  <si>
+    <t>Intro 1</t>
+  </si>
+  <si>
+    <t>Intro 2</t>
+  </si>
+  <si>
+    <t>E&amp;M</t>
+  </si>
+  <si>
+    <t>One additional 1000-level course or a mathematics course beyond the introductory level</t>
+  </si>
+  <si>
+    <t>Physics ScB</t>
+  </si>
+  <si>
+    <t>Calculus</t>
+  </si>
+  <si>
+    <t>Math 0190</t>
+  </si>
+  <si>
+    <t>Math 0100</t>
+  </si>
+  <si>
+    <t>One additional 1000 or 2000 level Physics course</t>
+  </si>
+  <si>
+    <t>Four Mathematics courses beyond MATH 0190 or 0100, including choices from Applied Mathematics</t>
+  </si>
+  <si>
+    <t>Senior Conference Course</t>
+  </si>
+  <si>
+    <t>PHYS 1990</t>
+  </si>
+  <si>
+    <t>Apma ScB</t>
+  </si>
+  <si>
+    <t>Calc 1</t>
+  </si>
+  <si>
+    <t>Calc 2</t>
+  </si>
+  <si>
+    <t>Senior Seminar</t>
+  </si>
+  <si>
+    <t>Ten additional courses, of which six should be chosen from the 1000-level or high courses taught by the Division of Applied Mathematics</t>
+  </si>
+  <si>
+    <t>APMA 0330 and APMA 0340 will sometimes be accepted in place of APMA 0350 and APMA 0360. Apma 1910 cannot be used as an elective</t>
+  </si>
+  <si>
+    <t>Math ScB</t>
+  </si>
+  <si>
+    <t>Functions of Several Variables II</t>
+  </si>
+  <si>
+    <t>Functions of Several Variables I</t>
+  </si>
+  <si>
+    <t>Choose 1</t>
+  </si>
+  <si>
+    <t>The year-long sequence of Math 0750/ Math 0760 may be substituted for one 1000-level Math Course.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The year-long sequence of Math 0750/ Math 0760 may be substituted for one 1000-level Math Course. </t>
+  </si>
+  <si>
+    <t>Operations Research</t>
+  </si>
+  <si>
+    <t>One More Applied Math</t>
+  </si>
+  <si>
+    <t>APMA 1720</t>
+  </si>
+  <si>
+    <t>APMA 0330, APMA 0340, and ECON 1110 will sometimes be accepted in place of APMA 0350, APMA 0360, and ECON 1130.</t>
+  </si>
+  <si>
+    <t>Two mathematical-economics</t>
+  </si>
+  <si>
+    <t>ECON 1220</t>
+  </si>
+  <si>
+    <t>ECON 1465</t>
+  </si>
+  <si>
+    <t>ECON 1640</t>
+  </si>
+  <si>
+    <t>ECON 1650</t>
+  </si>
+  <si>
+    <t>ECON 1670</t>
+  </si>
+  <si>
+    <t>ECON 1740</t>
+  </si>
+  <si>
+    <t>ECON 1759</t>
+  </si>
+  <si>
+    <t>ECON 1810</t>
+  </si>
+  <si>
+    <t>One data methods</t>
+  </si>
+  <si>
+    <t>Apma-Econ Advanced Economics AB</t>
+  </si>
+  <si>
+    <t>ECON 1301</t>
+  </si>
+  <si>
+    <t>ECON 1305</t>
+  </si>
+  <si>
+    <t>ECON 1355</t>
+  </si>
+  <si>
+    <t>ECON 1375</t>
+  </si>
+  <si>
+    <t>ECON 1410</t>
+  </si>
+  <si>
+    <t>ECON 1520</t>
+  </si>
+  <si>
+    <t>ECON 1765</t>
+  </si>
+  <si>
+    <t>One additional 1000-level economics course</t>
+  </si>
+  <si>
+    <t>Apma-Econ Mathematical Finance AB</t>
+  </si>
+  <si>
+    <t>One mathematical-economics</t>
+  </si>
+  <si>
+    <t>Two financial economics</t>
+  </si>
+  <si>
+    <t>ECON 1730</t>
+  </si>
+  <si>
+    <t>ECON 1770</t>
+  </si>
+  <si>
+    <t>ECON 1780</t>
+  </si>
+  <si>
+    <t>ECON 1790</t>
+  </si>
+  <si>
+    <t>Apma-Econ Advanced Economics ScB</t>
+  </si>
+  <si>
+    <t>Apma-Econ Mathematical Finance ScB</t>
+  </si>
+  <si>
+    <t>Calc I</t>
+  </si>
+  <si>
+    <t>Apma-Bio ScB</t>
+  </si>
+  <si>
+    <t>Calc II</t>
+  </si>
+  <si>
+    <t>Calc III</t>
+  </si>
+  <si>
+    <t>Equilibrium, Rate and Structure</t>
+  </si>
+  <si>
+    <t>CHEM 0330</t>
+  </si>
+  <si>
+    <t>Intro Physics</t>
+  </si>
+  <si>
+    <t>Quantitative Models</t>
+  </si>
+  <si>
+    <t>Genomics</t>
+  </si>
+  <si>
+    <t>Bio Foundations</t>
+  </si>
+  <si>
+    <t>Equivalent</t>
+  </si>
+  <si>
+    <t>Two Courses in Applied Math or Biology</t>
+  </si>
+  <si>
+    <t>Four classes in the biological sciences agreed upon by the student and advisor</t>
+  </si>
+  <si>
+    <t>Apma-CS ScB</t>
+  </si>
+  <si>
+    <t>Intro Sequence I</t>
+  </si>
+  <si>
+    <t>Intro Sequency II</t>
+  </si>
+  <si>
+    <t>One Math</t>
+  </si>
+  <si>
+    <t>One Systems</t>
+  </si>
+  <si>
+    <t>One Additional</t>
+  </si>
+  <si>
+    <t>3 1000-level CS courses</t>
+  </si>
+  <si>
+    <t>3 1000-level Applied Math courses</t>
+  </si>
+  <si>
+    <t>Two 1000-level CS courses and the intermediate courses must satisfy a CS pathway; see the CS concentration. Two of the 1000-level Applied Math courses must mave a common theme</t>
+  </si>
+  <si>
+    <t>Math-Econ AB</t>
+  </si>
+  <si>
+    <t>Mathematical Economics</t>
+  </si>
+  <si>
+    <t>Three mathematical-economics</t>
+  </si>
+  <si>
+    <t>Two additional 1000-level economics course</t>
+  </si>
+  <si>
+    <t>Three financial economics</t>
+  </si>
+  <si>
+    <t>Data Methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two additional 1000-level econs </t>
+  </si>
+  <si>
+    <t>Probability Theory</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Differential Equations</t>
+  </si>
+  <si>
+    <t>One additional</t>
   </si>
 </sst>
 </file>
@@ -2633,8 +2900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FF0174-35EF-4838-880B-C4F8D4E4CC9D}">
   <dimension ref="A2:AD54"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2804,37 +3071,37 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="T3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="W3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="Z3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AC3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -2896,37 +3163,37 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="T4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="W4" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="Z4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="AC4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -2937,7 +3204,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2988,37 +3255,37 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="T5" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="W5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="Z5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="AC5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -3080,37 +3347,37 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="T6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="W6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="Z6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AC6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -3121,7 +3388,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3172,37 +3439,37 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="T7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="W7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="Z7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="AC7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="AD7">
         <v>0</v>
@@ -3264,37 +3531,37 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="T8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="W8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="Z8" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="AC8" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -3305,7 +3572,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3356,37 +3623,37 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="T9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="W9" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="Z9" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="AC9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -3448,37 +3715,37 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T10" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="U10">
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="W10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="Z10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="AC10" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -3540,37 +3807,37 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="T11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="W11" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="Z11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AC11" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AD11">
         <v>0</v>
@@ -3632,37 +3899,37 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="T12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="U12">
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="W12" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="Z12" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AC12" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -3724,37 +3991,37 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="T13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="W13" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="Z13" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AC13" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -3816,37 +4083,37 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="T14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="W14" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Z14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AC14" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="AD14">
         <v>0</v>
@@ -3908,37 +4175,37 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="T15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="U15">
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="W15" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="X15">
         <v>0</v>
       </c>
       <c r="Y15" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="Z15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="AC15" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="AD15">
         <v>0</v>
@@ -4000,37 +4267,37 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="T16" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="W16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="Z16" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AC16" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -4092,37 +4359,37 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="T17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="U17">
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="W17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="X17">
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Z17" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AC17" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AD17">
         <v>0</v>
@@ -4184,28 +4451,28 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="W18" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="X18">
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="Z18" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="AA18">
         <v>0</v>
@@ -4267,28 +4534,28 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="T19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="U19">
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="W19" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="X19">
         <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="Z19" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -4350,28 +4617,28 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="T20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
       <c r="V20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="W20" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="X20">
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="Z20" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -4433,28 +4700,28 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="T21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="W21" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="Z21" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -4516,28 +4783,28 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="T22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="U22">
         <v>0</v>
       </c>
       <c r="V22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="W22" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="Z22" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -4599,28 +4866,28 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T23" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="W23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="Z23" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -4673,28 +4940,28 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="T24" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="W24" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="X24">
         <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="Z24" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AA24">
         <v>0</v>
@@ -4747,28 +5014,28 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="T25" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U25">
         <v>0</v>
       </c>
       <c r="V25" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="W25" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="X25">
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="Z25" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -4821,28 +5088,28 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="T26" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="W26" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="Z26" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -4895,28 +5162,28 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="T27" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="W27" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="Z27" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AA27">
         <v>0</v>
@@ -4969,28 +5236,28 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="T28" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="W28" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="Z28" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -5025,28 +5292,28 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="T29" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="W29" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
       <c r="Y29" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="Z29" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -5081,28 +5348,28 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="T30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="W30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="X30">
         <v>0</v>
       </c>
       <c r="Y30" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="Z30" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AA30">
         <v>0</v>
@@ -5137,28 +5404,28 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="T31" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="W31" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Z31" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -5193,28 +5460,28 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="T32" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="W32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="X32">
         <v>0</v>
       </c>
       <c r="Y32" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="Z32" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="AA32">
         <v>0</v>
@@ -5249,28 +5516,28 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T33" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="W33" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="X33">
         <v>0</v>
       </c>
       <c r="Y33" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="Z33" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="AA33">
         <v>0</v>
@@ -5305,28 +5572,28 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="T34" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="U34">
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="W34" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="X34">
         <v>0</v>
       </c>
       <c r="Y34" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="Z34" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AA34">
         <v>0</v>
@@ -5355,19 +5622,19 @@
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="W35" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="X35">
         <v>0</v>
       </c>
       <c r="Y35" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="Z35" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -5393,19 +5660,19 @@
         <v>0</v>
       </c>
       <c r="V36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="W36" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="X36">
         <v>0</v>
       </c>
       <c r="Y36" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="Z36" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -5431,19 +5698,19 @@
         <v>0</v>
       </c>
       <c r="V37" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="W37" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="X37">
         <v>0</v>
       </c>
       <c r="Y37" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="Z37" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -5469,10 +5736,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="W38" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="X38">
         <v>0</v>
@@ -5501,10 +5768,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="W39" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="X39">
         <v>0</v>
@@ -5533,10 +5800,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="W40" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="X40">
         <v>0</v>
@@ -5565,10 +5832,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="W41" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="X41">
         <v>0</v>
@@ -5588,10 +5855,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="W42" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="X42">
         <v>0</v>
@@ -5611,10 +5878,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="W43" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="X43">
         <v>0</v>
@@ -5631,10 +5898,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="W44" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="X44">
         <v>0</v>
@@ -5651,10 +5918,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="W45" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="X45">
         <v>0</v>
@@ -5671,10 +5938,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="W46" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="X46">
         <v>0</v>
@@ -5691,10 +5958,10 @@
         <v>0</v>
       </c>
       <c r="V47" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="W47" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="X47">
         <v>0</v>
@@ -5702,10 +5969,10 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="V48" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="W48" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="X48">
         <v>0</v>
@@ -5713,10 +5980,10 @@
     </row>
     <row r="49" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V49" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="W49" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -5724,10 +5991,10 @@
     </row>
     <row r="50" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="W50" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="X50">
         <v>0</v>
@@ -5735,10 +6002,10 @@
     </row>
     <row r="51" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V51" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="W51" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -5746,10 +6013,10 @@
     </row>
     <row r="52" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V52" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="W52" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -5757,10 +6024,10 @@
     </row>
     <row r="53" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V53" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="W53" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="X53">
         <v>0</v>
@@ -5768,10 +6035,10 @@
     </row>
     <row r="54" spans="22:24" x14ac:dyDescent="0.25">
       <c r="V54" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="W54" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -5784,11 +6051,2653 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747A9818-EA9F-44F5-B9A5-D3FB47E6E8EE}">
+  <dimension ref="A2:BB55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B2" t="s">
+        <v>460</v>
+      </c>
+      <c r="I2" t="s">
+        <v>762</v>
+      </c>
+      <c r="J2" t="s">
+        <v>757</v>
+      </c>
+      <c r="V2" t="s">
+        <v>802</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>822</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I3" t="s">
+        <v>758</v>
+      </c>
+      <c r="J3" t="s">
+        <v>759</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
+        <v>327</v>
+      </c>
+      <c r="N3" t="s">
+        <v>328</v>
+      </c>
+      <c r="O3" t="s">
+        <v>329</v>
+      </c>
+      <c r="P3" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>760</v>
+      </c>
+      <c r="R3" t="s">
+        <v>761</v>
+      </c>
+      <c r="U3" t="s">
+        <v>801</v>
+      </c>
+      <c r="V3" t="s">
+        <v>803</v>
+      </c>
+      <c r="W3" t="s">
+        <v>804</v>
+      </c>
+      <c r="X3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>805</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>807</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>481</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>808</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>809</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>810</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>812</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>813</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>327</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>467</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>815</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>816</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>817</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>818</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>819</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>820</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>821</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AH4">
+        <v>4</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>3</v>
+      </c>
+      <c r="AV4">
+        <v>3</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" t="s">
+        <v>595</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>150</v>
+      </c>
+      <c r="N5" t="s">
+        <v>151</v>
+      </c>
+      <c r="O5" t="s">
+        <v>147</v>
+      </c>
+      <c r="P5" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>595</v>
+      </c>
+      <c r="R5" t="s">
+        <v>595</v>
+      </c>
+      <c r="U5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>806</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>629</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>595</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>595</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>595</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>595</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" t="s">
+        <v>148</v>
+      </c>
+      <c r="N6" t="s">
+        <v>149</v>
+      </c>
+      <c r="O6" t="s">
+        <v>241</v>
+      </c>
+      <c r="P6" t="s">
+        <v>154</v>
+      </c>
+      <c r="R6" t="s">
+        <v>595</v>
+      </c>
+      <c r="V6" t="s">
+        <v>32</v>
+      </c>
+      <c r="W6" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>811</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>595</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>595</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>595</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" t="s">
+        <v>155</v>
+      </c>
+      <c r="R7" t="s">
+        <v>595</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>595</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>595</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>267</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>595</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" t="s">
+        <v>156</v>
+      </c>
+      <c r="O8" t="s">
+        <v>247</v>
+      </c>
+      <c r="P8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R8" t="s">
+        <v>595</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>595</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" t="s">
+        <v>157</v>
+      </c>
+      <c r="R9" t="s">
+        <v>595</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>158</v>
+      </c>
+      <c r="P10" t="s">
+        <v>158</v>
+      </c>
+      <c r="R10" t="s">
+        <v>595</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>159</v>
+      </c>
+      <c r="P11" t="s">
+        <v>159</v>
+      </c>
+      <c r="R11" t="s">
+        <v>595</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>160</v>
+      </c>
+      <c r="P12" t="s">
+        <v>160</v>
+      </c>
+      <c r="R12" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>161</v>
+      </c>
+      <c r="P13" t="s">
+        <v>161</v>
+      </c>
+      <c r="R13" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>162</v>
+      </c>
+      <c r="P14" t="s">
+        <v>162</v>
+      </c>
+      <c r="R14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="P15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="P16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="P17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="P18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="P19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>772</v>
+      </c>
+      <c r="B22" t="s">
+        <v>783</v>
+      </c>
+      <c r="O22" t="s">
+        <v>772</v>
+      </c>
+      <c r="P22" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" t="s">
+        <v>329</v>
+      </c>
+      <c r="D23" t="s">
+        <v>769</v>
+      </c>
+      <c r="E23" t="s">
+        <v>481</v>
+      </c>
+      <c r="F23" t="s">
+        <v>770</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" t="s">
+        <v>773</v>
+      </c>
+      <c r="K23" t="s">
+        <v>782</v>
+      </c>
+      <c r="L23" t="s">
+        <v>791</v>
+      </c>
+      <c r="O23" t="s">
+        <v>327</v>
+      </c>
+      <c r="P23" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>329</v>
+      </c>
+      <c r="R23" t="s">
+        <v>769</v>
+      </c>
+      <c r="S23" t="s">
+        <v>481</v>
+      </c>
+      <c r="T23" t="s">
+        <v>770</v>
+      </c>
+      <c r="U23" t="s">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s">
+        <v>76</v>
+      </c>
+      <c r="W23" t="s">
+        <v>78</v>
+      </c>
+      <c r="X23" t="s">
+        <v>794</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>793</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>782</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>772</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <v>2</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>769</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>481</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>770</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>825</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>782</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>826</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>772</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s">
+        <v>40</v>
+      </c>
+      <c r="J25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25" t="s">
+        <v>784</v>
+      </c>
+      <c r="L25" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>147</v>
+      </c>
+      <c r="R25" t="s">
+        <v>158</v>
+      </c>
+      <c r="S25" t="s">
+        <v>162</v>
+      </c>
+      <c r="T25" t="s">
+        <v>158</v>
+      </c>
+      <c r="U25" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" t="s">
+        <v>37</v>
+      </c>
+      <c r="W25" t="s">
+        <v>40</v>
+      </c>
+      <c r="X25" t="s">
+        <v>777</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>784</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>1</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
+      </c>
+      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>3</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>2</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>327</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>329</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>769</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>481</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>770</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>827</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>773</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" t="s">
+        <v>774</v>
+      </c>
+      <c r="K26" t="s">
+        <v>785</v>
+      </c>
+      <c r="L26" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" t="s">
+        <v>148</v>
+      </c>
+      <c r="P26" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>241</v>
+      </c>
+      <c r="R26" t="s">
+        <v>159</v>
+      </c>
+      <c r="S26" t="s">
+        <v>163</v>
+      </c>
+      <c r="T26" t="s">
+        <v>159</v>
+      </c>
+      <c r="U26" t="s">
+        <v>35</v>
+      </c>
+      <c r="X26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>774</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>785</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>158</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>784</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+      <c r="AR26">
+        <v>1</v>
+      </c>
+      <c r="AS26">
+        <v>1</v>
+      </c>
+      <c r="AT26">
+        <v>1</v>
+      </c>
+      <c r="AU26">
+        <v>1</v>
+      </c>
+      <c r="AV26">
+        <v>1</v>
+      </c>
+      <c r="AW26">
+        <v>1</v>
+      </c>
+      <c r="AX26">
+        <v>1</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+      <c r="AZ26">
+        <v>3</v>
+      </c>
+      <c r="BA26">
+        <v>2</v>
+      </c>
+      <c r="BB26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>245</v>
+      </c>
+      <c r="F27" t="s">
+        <v>160</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>245</v>
+      </c>
+      <c r="T27" t="s">
+        <v>160</v>
+      </c>
+      <c r="X27" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>774</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>785</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>162</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>777</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" t="s">
+        <v>161</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" t="s">
+        <v>786</v>
+      </c>
+      <c r="L28" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>247</v>
+      </c>
+      <c r="T28" t="s">
+        <v>161</v>
+      </c>
+      <c r="X28" t="s">
+        <v>795</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>786</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>774</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J29" t="s">
+        <v>775</v>
+      </c>
+      <c r="K29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" t="s">
+        <v>45</v>
+      </c>
+      <c r="T29" t="s">
+        <v>164</v>
+      </c>
+      <c r="X29" t="s">
+        <v>779</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>775</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>786</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>165</v>
+      </c>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30" t="s">
+        <v>787</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
+      </c>
+      <c r="T30" t="s">
+        <v>165</v>
+      </c>
+      <c r="X30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>787</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>775</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>247</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>795</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>771</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31" t="s">
+        <v>47</v>
+      </c>
+      <c r="T31" t="s">
+        <v>771</v>
+      </c>
+      <c r="X31" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>787</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ31" t="s">
+        <v>779</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>775</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>167</v>
+      </c>
+      <c r="J32" t="s">
+        <v>776</v>
+      </c>
+      <c r="K32" t="s">
+        <v>788</v>
+      </c>
+      <c r="L32" t="s">
+        <v>48</v>
+      </c>
+      <c r="T32" t="s">
+        <v>167</v>
+      </c>
+      <c r="X32" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>776</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>788</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>771</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="33" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" t="s">
+        <v>777</v>
+      </c>
+      <c r="K33" t="s">
+        <v>52</v>
+      </c>
+      <c r="L33" t="s">
+        <v>49</v>
+      </c>
+      <c r="T33" t="s">
+        <v>8</v>
+      </c>
+      <c r="X33" t="s">
+        <v>790</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>776</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>788</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>771</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>780</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>478</v>
+      </c>
+      <c r="K34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" t="s">
+        <v>50</v>
+      </c>
+      <c r="X34" t="s">
+        <v>796</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>777</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>167</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>776</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="35" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>778</v>
+      </c>
+      <c r="K35" t="s">
+        <v>789</v>
+      </c>
+      <c r="L35" t="s">
+        <v>51</v>
+      </c>
+      <c r="X35" t="s">
+        <v>797</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>778</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>789</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>478</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>790</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>777</v>
+      </c>
+      <c r="BB35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>779</v>
+      </c>
+      <c r="K36" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" t="s">
+        <v>52</v>
+      </c>
+      <c r="X36" t="s">
+        <v>798</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>779</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>778</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>789</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>796</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>478</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>779</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>52</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>797</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>778</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="38" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>780</v>
+      </c>
+      <c r="K38" t="s">
+        <v>776</v>
+      </c>
+      <c r="L38" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>780</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>776</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>798</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>779</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>781</v>
+      </c>
+      <c r="K39" t="s">
+        <v>777</v>
+      </c>
+      <c r="L39" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>781</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>777</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>780</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>776</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40" t="s">
+        <v>478</v>
+      </c>
+      <c r="L40" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>478</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>781</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>777</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>780</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="41" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" t="s">
+        <v>780</v>
+      </c>
+      <c r="L41" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>780</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>478</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>781</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="42" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42" t="s">
+        <v>790</v>
+      </c>
+      <c r="L42" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>790</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>780</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>65</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="43" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+      <c r="L43" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>790</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA43" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="44" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="L44" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="45" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="L45" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="L46" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="L47" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="6:54" x14ac:dyDescent="0.25">
+      <c r="L48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L49" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L51" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L52" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L53" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L54" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="AN55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE29988-454E-457E-A116-B20BC6DC2552}">
+  <dimension ref="A2:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F3" t="s">
+        <v>481</v>
+      </c>
+      <c r="G3" t="s">
+        <v>467</v>
+      </c>
+      <c r="H3" t="s">
+        <v>485</v>
+      </c>
+      <c r="I3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" t="s">
+        <v>483</v>
+      </c>
+      <c r="H5" t="s">
+        <v>595</v>
+      </c>
+      <c r="I5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H7" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>475</v>
+      </c>
+      <c r="D8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E9" t="s">
+        <v>478</v>
+      </c>
+      <c r="F9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>484</v>
+      </c>
+      <c r="H10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>479</v>
+      </c>
+      <c r="H12" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>480</v>
+      </c>
+      <c r="H13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3EF994-E0EF-411A-B3E5-64484F9594EC}">
+  <dimension ref="A2:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96243044-DAFC-4DB6-9967-18D55104159C}">
   <dimension ref="A2:AD56"/>
   <sheetViews>
-    <sheetView topLeftCell="K8" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5805,22 +8714,22 @@
   <sheetData>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>768</v>
       </c>
       <c r="B2" t="s">
-        <v>464</v>
+        <v>462</v>
+      </c>
+      <c r="I2" t="s">
+        <v>767</v>
       </c>
       <c r="J2" t="s">
-        <v>392</v>
-      </c>
-      <c r="K2" t="s">
-        <v>462</v>
+        <v>763</v>
       </c>
       <c r="V2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="W2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -5836,26 +8745,26 @@
       <c r="D3" t="s">
         <v>72</v>
       </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
       <c r="J3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>765</v>
       </c>
       <c r="L3" t="s">
-        <v>327</v>
+        <v>764</v>
       </c>
       <c r="M3" t="s">
-        <v>328</v>
+        <v>71</v>
       </c>
       <c r="N3" t="s">
-        <v>329</v>
+        <v>766</v>
       </c>
       <c r="O3" t="s">
-        <v>330</v>
-      </c>
-      <c r="P3" t="s">
-        <v>331</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s">
         <v>71</v>
@@ -5879,7 +8788,7 @@
         <v>337</v>
       </c>
       <c r="AC3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AD3" t="s">
         <v>338</v>
@@ -5898,6 +8807,9 @@
       <c r="D4">
         <v>5</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
       <c r="J4">
         <v>1</v>
       </c>
@@ -5914,10 +8826,7 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V4">
         <v>1</v>
@@ -5960,26 +8869,26 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="N5" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>153</v>
-      </c>
-      <c r="P5" t="s">
-        <v>597</v>
+        <v>8</v>
       </c>
       <c r="V5" t="s">
         <v>7</v>
@@ -6003,10 +8912,10 @@
         <v>254</v>
       </c>
       <c r="AC5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AD5" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -6019,23 +8928,17 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
       <c r="J6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
         <v>6</v>
       </c>
-      <c r="L6" t="s">
-        <v>148</v>
-      </c>
-      <c r="M6" t="s">
-        <v>149</v>
-      </c>
       <c r="N6" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="O6" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="W6" t="s">
         <v>247</v>
@@ -6056,7 +8959,7 @@
         <v>255</v>
       </c>
       <c r="AC6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -6066,20 +8969,17 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>4</v>
       </c>
-      <c r="N7" t="s">
-        <v>245</v>
-      </c>
       <c r="O7" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="W7" t="s">
         <v>249</v>
       </c>
       <c r="X7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AA7" t="s">
         <v>10</v>
@@ -6088,18 +8988,15 @@
         <v>256</v>
       </c>
       <c r="AC7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="N8" t="s">
-        <v>247</v>
-      </c>
       <c r="O8" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="s">
         <v>11</v>
@@ -6113,7 +9010,7 @@
         <v>12</v>
       </c>
       <c r="O9" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="s">
         <v>12</v>
@@ -6127,7 +9024,7 @@
         <v>13</v>
       </c>
       <c r="O10" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="s">
         <v>13</v>
@@ -6141,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="s">
         <v>1</v>
@@ -6155,7 +9052,7 @@
         <v>14</v>
       </c>
       <c r="O12" t="s">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="AA12" t="s">
         <v>14</v>
@@ -6169,7 +9066,7 @@
         <v>16</v>
       </c>
       <c r="O13" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="AA13" t="s">
         <v>16</v>
@@ -6183,7 +9080,7 @@
         <v>15</v>
       </c>
       <c r="O14" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="s">
         <v>15</v>
@@ -6197,7 +9094,7 @@
         <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="s">
         <v>17</v>
@@ -6211,7 +9108,7 @@
         <v>18</v>
       </c>
       <c r="O16" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="AA16" t="s">
         <v>18</v>
@@ -6225,7 +9122,7 @@
         <v>19</v>
       </c>
       <c r="O17" t="s">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="s">
         <v>19</v>
@@ -6239,7 +9136,7 @@
         <v>20</v>
       </c>
       <c r="O18" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="s">
         <v>20</v>
@@ -6253,7 +9150,7 @@
         <v>21</v>
       </c>
       <c r="O19" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="s">
         <v>21</v>
@@ -6266,6 +9163,9 @@
       <c r="D20" t="s">
         <v>22</v>
       </c>
+      <c r="O20" t="s">
+        <v>22</v>
+      </c>
       <c r="AA20" t="s">
         <v>22</v>
       </c>
@@ -6277,6 +9177,9 @@
       <c r="D21" t="s">
         <v>30</v>
       </c>
+      <c r="O21" t="s">
+        <v>30</v>
+      </c>
       <c r="AB21" t="s">
         <v>270</v>
       </c>
@@ -6302,17 +9205,8 @@
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>391</v>
-      </c>
       <c r="B26" t="s">
-        <v>465</v>
-      </c>
-      <c r="L26" t="s">
-        <v>504</v>
-      </c>
-      <c r="M26" t="s">
-        <v>466</v>
+        <v>823</v>
       </c>
       <c r="AB26" t="s">
         <v>275</v>
@@ -6320,52 +9214,40 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>824</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>828</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>829</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" t="s">
+        <v>830</v>
+      </c>
+      <c r="J27" t="s">
+        <v>831</v>
+      </c>
+      <c r="K27" t="s">
+        <v>832</v>
       </c>
       <c r="L27" t="s">
-        <v>467</v>
-      </c>
-      <c r="M27" t="s">
-        <v>469</v>
-      </c>
-      <c r="N27" t="s">
-        <v>473</v>
-      </c>
-      <c r="O27" t="s">
-        <v>478</v>
-      </c>
-      <c r="P27" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>483</v>
-      </c>
-      <c r="R27" t="s">
-        <v>469</v>
-      </c>
-      <c r="S27" t="s">
-        <v>487</v>
-      </c>
-      <c r="T27" t="s">
-        <v>503</v>
+        <v>833</v>
       </c>
       <c r="AB27" t="s">
         <v>276</v>
@@ -6382,42 +9264,30 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>2</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="S28">
-        <v>3</v>
-      </c>
-      <c r="T28">
         <v>1</v>
       </c>
       <c r="AB28" t="s">
@@ -6426,52 +9296,40 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>784</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>11</v>
       </c>
       <c r="L29" t="s">
-        <v>468</v>
-      </c>
-      <c r="M29" t="s">
-        <v>470</v>
-      </c>
-      <c r="N29" t="s">
-        <v>474</v>
-      </c>
-      <c r="O29" t="s">
-        <v>34</v>
-      </c>
-      <c r="P29" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>152</v>
-      </c>
-      <c r="R29" t="s">
-        <v>485</v>
-      </c>
-      <c r="S29" t="s">
-        <v>597</v>
-      </c>
-      <c r="T29" t="s">
-        <v>503</v>
+        <v>21</v>
       </c>
       <c r="AB29" t="s">
         <v>278</v>
@@ -6479,310 +9337,283 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>785</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G30" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" t="s">
-        <v>471</v>
-      </c>
-      <c r="N30" t="s">
-        <v>475</v>
-      </c>
-      <c r="O30" t="s">
-        <v>241</v>
-      </c>
-      <c r="P30" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>162</v>
-      </c>
-      <c r="R30" t="s">
-        <v>245</v>
-      </c>
-      <c r="S30" t="s">
-        <v>488</v>
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" t="s">
+        <v>22</v>
       </c>
       <c r="AB30" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="D31" t="s">
+        <v>775</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
         <v>43</v>
       </c>
-      <c r="M31" t="s">
-        <v>472</v>
-      </c>
-      <c r="N31" t="s">
-        <v>476</v>
-      </c>
-      <c r="O31" t="s">
-        <v>245</v>
-      </c>
-      <c r="P31" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>484</v>
-      </c>
-      <c r="R31" t="s">
-        <v>247</v>
-      </c>
-      <c r="S31" t="s">
-        <v>489</v>
+      <c r="I31" t="s">
+        <v>162</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>162</v>
       </c>
       <c r="AB31" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="G32" t="s">
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
         <v>44</v>
       </c>
-      <c r="N32" t="s">
-        <v>477</v>
-      </c>
-      <c r="O32" t="s">
-        <v>247</v>
-      </c>
-      <c r="P32" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>242</v>
-      </c>
-      <c r="R32" t="s">
-        <v>39</v>
-      </c>
-      <c r="S32" t="s">
-        <v>490</v>
+      <c r="I32" t="s">
+        <v>163</v>
+      </c>
+      <c r="L32" t="s">
+        <v>163</v>
       </c>
       <c r="AB32" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="33" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G33" t="s">
+    <row r="33" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>776</v>
+      </c>
+      <c r="E33" t="s">
+        <v>788</v>
+      </c>
+      <c r="F33" t="s">
         <v>45</v>
       </c>
-      <c r="O33" t="s">
-        <v>248</v>
-      </c>
-      <c r="P33" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>267</v>
-      </c>
-      <c r="R33" t="s">
-        <v>40</v>
-      </c>
-      <c r="S33" t="s">
-        <v>491</v>
+      <c r="L33" t="s">
+        <v>8</v>
       </c>
       <c r="AB33" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="34" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G34" t="s">
+    <row r="34" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>777</v>
+      </c>
+      <c r="E34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" t="s">
         <v>46</v>
       </c>
-      <c r="O34" t="s">
-        <v>249</v>
-      </c>
-      <c r="P34" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>38</v>
-      </c>
-      <c r="R34" t="s">
-        <v>486</v>
-      </c>
-      <c r="S34" t="s">
-        <v>65</v>
+      <c r="L34" t="s">
+        <v>13</v>
       </c>
       <c r="AB34" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G35" t="s">
+    <row r="35" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>478</v>
+      </c>
+      <c r="E35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" t="s">
         <v>47</v>
       </c>
-      <c r="P35" t="s">
-        <v>68</v>
-      </c>
-      <c r="S35" t="s">
-        <v>68</v>
+      <c r="L35" t="s">
+        <v>1</v>
       </c>
       <c r="AB35" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G36" t="s">
+    <row r="36" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" t="s">
+        <v>789</v>
+      </c>
+      <c r="F36" t="s">
         <v>48</v>
       </c>
-      <c r="P36" t="s">
-        <v>481</v>
-      </c>
-      <c r="S36" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="37" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G37" t="s">
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>780</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" t="s">
         <v>49</v>
       </c>
-      <c r="P37" t="s">
-        <v>482</v>
-      </c>
-      <c r="S37" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G38" t="s">
+      <c r="L37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>781</v>
+      </c>
+      <c r="E38" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" t="s">
         <v>50</v>
       </c>
-      <c r="S38" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="39" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G39" t="s">
+    </row>
+    <row r="39" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" t="s">
+        <v>776</v>
+      </c>
+      <c r="F39" t="s">
         <v>51</v>
       </c>
-      <c r="S39" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="40" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G40" t="s">
+    </row>
+    <row r="40" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" t="s">
+        <v>777</v>
+      </c>
+      <c r="F40" t="s">
         <v>52</v>
       </c>
-      <c r="S40" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="41" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G41" t="s">
+    </row>
+    <row r="41" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>780</v>
+      </c>
+      <c r="F41" t="s">
         <v>53</v>
       </c>
-      <c r="S41" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="42" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G42" t="s">
+    </row>
+    <row r="42" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" t="s">
+        <v>790</v>
+      </c>
+      <c r="F42" t="s">
         <v>54</v>
       </c>
-      <c r="S42" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="43" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G43" t="s">
+    </row>
+    <row r="43" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
         <v>55</v>
       </c>
-      <c r="S43" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="44" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G44" t="s">
+    </row>
+    <row r="44" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
         <v>56</v>
       </c>
-      <c r="S44" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="45" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G45" t="s">
+    </row>
+    <row r="45" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
         <v>57</v>
       </c>
-      <c r="S45" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="46" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G46" t="s">
+    </row>
+    <row r="46" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
         <v>58</v>
       </c>
-      <c r="S46" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="47" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G47" t="s">
+    </row>
+    <row r="47" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
         <v>59</v>
       </c>
-      <c r="S47" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="48" spans="7:28" x14ac:dyDescent="0.25">
-      <c r="G48" t="s">
+    </row>
+    <row r="48" spans="4:28" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
         <v>60</v>
       </c>
-      <c r="S48" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="49" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G49" t="s">
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
         <v>61</v>
       </c>
-      <c r="S49" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="50" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G50" t="s">
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G51" t="s">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G52" t="s">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G53" t="s">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G54" t="s">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G55" t="s">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G56" t="s">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6792,84 +9623,84 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9C883B-EF74-4BC0-8652-4174049AF6A8}">
-  <dimension ref="A2:V33"/>
+  <dimension ref="A2:AH33"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>597</v>
+      </c>
+      <c r="B3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D3" t="s">
         <v>599</v>
       </c>
-      <c r="B3" t="s">
-        <v>561</v>
-      </c>
-      <c r="C3" t="s">
-        <v>600</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>601</v>
       </c>
-      <c r="E3" t="s">
-        <v>603</v>
-      </c>
       <c r="F3" t="s">
+        <v>604</v>
+      </c>
+      <c r="G3" t="s">
         <v>606</v>
       </c>
-      <c r="G3" t="s">
-        <v>608</v>
-      </c>
       <c r="H3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I3" t="s">
+        <v>621</v>
+      </c>
+      <c r="L3" t="s">
+        <v>597</v>
+      </c>
+      <c r="M3" t="s">
+        <v>559</v>
+      </c>
+      <c r="N3" t="s">
+        <v>598</v>
+      </c>
+      <c r="O3" t="s">
+        <v>599</v>
+      </c>
+      <c r="P3" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>604</v>
+      </c>
+      <c r="R3" t="s">
+        <v>606</v>
+      </c>
+      <c r="S3" t="s">
+        <v>616</v>
+      </c>
+      <c r="T3" t="s">
+        <v>621</v>
+      </c>
+      <c r="U3" t="s">
         <v>623</v>
       </c>
-      <c r="L3" t="s">
-        <v>599</v>
-      </c>
-      <c r="M3" t="s">
-        <v>561</v>
-      </c>
-      <c r="N3" t="s">
-        <v>600</v>
-      </c>
-      <c r="O3" t="s">
-        <v>601</v>
-      </c>
-      <c r="P3" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>606</v>
-      </c>
-      <c r="R3" t="s">
-        <v>608</v>
-      </c>
-      <c r="S3" t="s">
-        <v>618</v>
-      </c>
-      <c r="T3" t="s">
-        <v>623</v>
-      </c>
-      <c r="U3" t="s">
-        <v>625</v>
-      </c>
       <c r="V3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -6936,201 +9767,201 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B5" t="s">
+        <v>482</v>
+      </c>
+      <c r="C5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E5" t="s">
+        <v>602</v>
+      </c>
+      <c r="F5" t="s">
         <v>505</v>
       </c>
-      <c r="B5" t="s">
-        <v>484</v>
-      </c>
-      <c r="C5" t="s">
-        <v>472</v>
-      </c>
-      <c r="D5" t="s">
-        <v>471</v>
-      </c>
-      <c r="E5" t="s">
-        <v>604</v>
-      </c>
-      <c r="F5" t="s">
-        <v>507</v>
-      </c>
       <c r="G5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L5" t="s">
+        <v>503</v>
+      </c>
+      <c r="M5" t="s">
+        <v>482</v>
+      </c>
+      <c r="N5" t="s">
+        <v>470</v>
+      </c>
+      <c r="O5" t="s">
+        <v>469</v>
+      </c>
+      <c r="P5" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q5" t="s">
         <v>505</v>
       </c>
-      <c r="M5" t="s">
-        <v>484</v>
-      </c>
-      <c r="N5" t="s">
-        <v>472</v>
-      </c>
-      <c r="O5" t="s">
-        <v>471</v>
-      </c>
-      <c r="P5" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>507</v>
-      </c>
       <c r="R5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="S5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="T5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="U5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="V5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E6" t="s">
+        <v>511</v>
+      </c>
+      <c r="F6" t="s">
+        <v>605</v>
+      </c>
+      <c r="G6" t="s">
+        <v>486</v>
+      </c>
+      <c r="H6" t="s">
+        <v>617</v>
+      </c>
+      <c r="N6" t="s">
         <v>513</v>
       </c>
-      <c r="F6" t="s">
-        <v>607</v>
-      </c>
-      <c r="G6" t="s">
-        <v>488</v>
-      </c>
-      <c r="H6" t="s">
-        <v>619</v>
-      </c>
-      <c r="N6" t="s">
-        <v>515</v>
-      </c>
       <c r="O6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="P6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Q6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="R6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="S6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="U6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="V6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="N7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="O7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="P7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="Q7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="R7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="S7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="U7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="V7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="P8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="Q8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="R8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="S8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="U8" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="V8" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="R9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="S9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="U9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="V9" t="s">
         <v>266</v>
@@ -7138,39 +9969,39 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="R10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="S10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="U10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="V10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="R11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="S11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="U11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="V11" t="s">
         <v>27</v>
@@ -7178,59 +10009,59 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="R12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="S12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="U12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="V12" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="R13" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="S13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="U13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="V13" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="R14" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="S14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="U14" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="V14" t="s">
         <v>188</v>
@@ -7238,112 +10069,118 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H15" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="R15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="S15" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="U15" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="R16" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="U16" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
+        <v>612</v>
+      </c>
+      <c r="R17" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>537</v>
+      </c>
+      <c r="R18" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>474</v>
+      </c>
+      <c r="R19" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>613</v>
+      </c>
+      <c r="R20" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
         <v>614</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R21" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>539</v>
-      </c>
-      <c r="R18" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>476</v>
-      </c>
-      <c r="R19" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
         <v>615</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R22" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G21" t="s">
-        <v>616</v>
-      </c>
-      <c r="R21" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G22" t="s">
-        <v>617</v>
-      </c>
-      <c r="R22" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B26" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B27" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C27" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D27" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E27" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F27" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G27" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>648</v>
+      </c>
+      <c r="M27" t="s">
+        <v>744</v>
+      </c>
+      <c r="W27" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -7365,69 +10202,294 @@
       <c r="G28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>745</v>
+      </c>
+      <c r="M28" t="s">
+        <v>746</v>
+      </c>
+      <c r="N28" t="s">
+        <v>747</v>
+      </c>
+      <c r="O28" t="s">
+        <v>225</v>
+      </c>
+      <c r="P28" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>232</v>
+      </c>
+      <c r="R28" t="s">
+        <v>235</v>
+      </c>
+      <c r="S28" t="s">
+        <v>748</v>
+      </c>
+      <c r="V28" t="s">
+        <v>745</v>
+      </c>
+      <c r="W28" t="s">
+        <v>746</v>
+      </c>
+      <c r="X28" t="s">
+        <v>750</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>747</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>753</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>754</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>635</v>
+      </c>
+      <c r="B29" t="s">
         <v>637</v>
-      </c>
-      <c r="B29" t="s">
-        <v>639</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E29" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F29" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G29" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>1</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>1</v>
+      </c>
+      <c r="AG29">
+        <v>4</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E30" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F30" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G30" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+      <c r="L30" t="s">
+        <v>188</v>
+      </c>
+      <c r="M30" t="s">
+        <v>189</v>
+      </c>
+      <c r="N30" t="s">
+        <v>198</v>
+      </c>
+      <c r="O30" t="s">
+        <v>199</v>
+      </c>
+      <c r="P30" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>206</v>
+      </c>
+      <c r="R30" t="s">
+        <v>209</v>
+      </c>
+      <c r="S30" t="s">
+        <v>595</v>
+      </c>
+      <c r="V30" t="s">
+        <v>188</v>
+      </c>
+      <c r="W30" t="s">
+        <v>189</v>
+      </c>
+      <c r="X30" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>595</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>595</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D31" t="s">
         <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+      <c r="L31" t="s">
+        <v>190</v>
+      </c>
+      <c r="M31" t="s">
+        <v>191</v>
+      </c>
+      <c r="V31" t="s">
+        <v>190</v>
+      </c>
+      <c r="W31" t="s">
+        <v>191</v>
+      </c>
+      <c r="X31" t="s">
+        <v>752</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>192</v>
+      </c>
+      <c r="M32" t="s">
+        <v>195</v>
+      </c>
+      <c r="V32" t="s">
+        <v>192</v>
+      </c>
+      <c r="W32" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="33" spans="4:33" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>646</v>
+        <v>644</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
